--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -792,17 +792,17 @@
         <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
         <v>13000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,12 +955,156 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>90</v>
+      </c>
+      <c r="K9" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>18</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>80</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>18</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44235</v>
+        <v>44424</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44235</v>
+        <v>44424</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
         <v>12000</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
         <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,11 +929,11 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
         <v>10000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K3" t="n">
         <v>12000</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J4" t="n">
         <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44235</v>
+        <v>44424</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,11 +929,11 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
         <v>10000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44424</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,11 +929,11 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
         <v>10000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
         <v>13000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K5" t="n">
         <v>12000</v>
@@ -730,7 +730,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
         <v>13000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K9" t="n">
         <v>13000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K3" t="n">
         <v>12000</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>722</v>
+        <v>1222</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1080,31 +1080,175 @@
         <v>50</v>
       </c>
       <c r="K10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>18</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44424</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>15</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44424</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>50</v>
+      </c>
+      <c r="K12" t="n">
         <v>12000</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L12" t="n">
         <v>12000</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M12" t="n">
         <v>12000</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P10" t="n">
+      <c r="P12" t="n">
         <v>800</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q12" t="n">
         <v>15</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
         <v>13000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K7" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K9" t="n">
         <v>13000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>1222</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>778</v>
+        <v>1222</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M5" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
         <v>13000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>1222</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K3" t="n">
         <v>12000</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>611</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44235</v>
+        <v>44424</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>778</v>
+        <v>1222</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44235</v>
+        <v>44424</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,11 +1073,11 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
         <v>10000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44536</v>
+        <v>44242</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44536</v>
+        <v>44242</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44536</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1111</v>
+        <v>722</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44424</v>
+        <v>44238</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>667</v>
+        <v>1222</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1224,17 +1224,17 @@
         <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>556</v>
+        <v>1222</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>722</v>
+        <v>1111</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>611</v>
+        <v>1200</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1222</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,24 +1217,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1111</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44424</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1200</v>
+        <v>611</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M11" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>667</v>
+        <v>1222</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
         <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>722</v>
+        <v>1222</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
         <v>13000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -720,17 +720,17 @@
         <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>556</v>
+        <v>1222</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1222</v>
+        <v>1111</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,24 +1217,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -576,17 +576,17 @@
         <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -720,17 +720,17 @@
         <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44238</v>
+        <v>44536</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M6" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>722</v>
+        <v>1222</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44238</v>
+        <v>44536</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -864,13 +864,13 @@
         <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>611</v>
+        <v>1111</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44536</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K8" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44536</v>
+        <v>44238</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1008,13 +1008,13 @@
         <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1111</v>
+        <v>611</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>1222</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44536</v>
+        <v>44242</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44536</v>
+        <v>44242</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44424</v>
+        <v>44756</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>933</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44424</v>
+        <v>44756</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K3" t="n">
         <v>12000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M6" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>722</v>
+        <v>1222</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,12 +1243,156 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>90</v>
+      </c>
+      <c r="K13" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>18</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>80</v>
+      </c>
+      <c r="K14" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>18</v>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>1222</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44536</v>
+        <v>44242</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44536</v>
+        <v>44242</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1008,17 +1008,17 @@
         <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M6" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>722</v>
+        <v>1222</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K9" t="n">
         <v>12000</v>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,11 +1217,11 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44756</v>
+        <v>44536</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>933</v>
+        <v>1222</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44756</v>
+        <v>44536</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -720,17 +720,17 @@
         <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K6" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L6" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K8" t="n">
         <v>14000</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K9" t="n">
         <v>12000</v>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K4" t="n">
         <v>13000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K7" t="n">
         <v>12000</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44756</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>933</v>
+        <v>556</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44756</v>
+        <v>44536</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>800</v>
+        <v>1222</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44238</v>
+        <v>44536</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>722</v>
+        <v>1111</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44756</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>611</v>
+        <v>933</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,24 +1217,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,11 +1361,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
         <v>10000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K3" t="n">
         <v>12000</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44238</v>
+        <v>44756</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>611</v>
+        <v>933</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44235</v>
+        <v>44424</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44424</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44536</v>
+        <v>44238</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44536</v>
+        <v>44238</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1080,13 +1080,13 @@
         <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1111</v>
+        <v>611</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44756</v>
+        <v>44536</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>933</v>
+        <v>1222</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44756</v>
+        <v>44536</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>778</v>
+        <v>1222</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44756</v>
+        <v>44238</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M5" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>933</v>
+        <v>611</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44756</v>
+        <v>44242</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K11" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44242</v>
+        <v>44756</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>722</v>
+        <v>933</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44242</v>
+        <v>44756</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K14" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44536</v>
+        <v>44238</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44536</v>
+        <v>44238</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -576,13 +576,13 @@
         <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1111</v>
+        <v>611</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M11" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>667</v>
+        <v>1222</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K5" t="n">
         <v>12000</v>
@@ -730,7 +730,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>667</v>
+        <v>1222</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44242</v>
+        <v>44756</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>722</v>
+        <v>933</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44242</v>
+        <v>44756</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44756</v>
+        <v>44242</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>933</v>
+        <v>722</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44756</v>
+        <v>44242</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44424</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44235</v>
+        <v>44424</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
         <v>12000</v>
@@ -730,7 +730,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K7" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44756</v>
+        <v>44242</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>933</v>
+        <v>722</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44756</v>
+        <v>44242</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>1222</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44242</v>
+        <v>44756</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>722</v>
+        <v>933</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44242</v>
+        <v>44756</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K14" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>556</v>
+        <v>933</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44536</v>
+        <v>44756</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K7" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1222</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1111</v>
+        <v>1222</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44756</v>
+        <v>44536</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>933</v>
+        <v>1111</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44756</v>
+        <v>44238</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44424</v>
+        <v>44238</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>611</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,24 +1217,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,11 +1361,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
         <v>10000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44242</v>
+        <v>44756</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>933</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44756</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44756</v>
+        <v>44235</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
         <v>14000</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>933</v>
+        <v>778</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44756</v>
+        <v>44235</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K7" t="n">
         <v>12000</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1111</v>
+        <v>1222</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44238</v>
+        <v>44536</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>722</v>
+        <v>1111</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,11 +1361,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
         <v>10000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44756</v>
+        <v>44991</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>933</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44756</v>
+        <v>44991</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K6" t="n">
         <v>14000</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K7" t="n">
         <v>12000</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K9" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44536</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>722</v>
+        <v>1222</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44238</v>
+        <v>44536</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1224,13 +1224,13 @@
         <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>611</v>
+        <v>1111</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K13" t="n">
         <v>13000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M14" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,12 +1387,156 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>60</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>18</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>50</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>18</v>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44536</v>
+        <v>44992</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="K11" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1111</v>
+        <v>1222</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44238</v>
+        <v>44536</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M13" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>722</v>
+        <v>1111</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K14" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M15" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K16" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,12 +1531,84 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>50</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>18</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44424</v>
+        <v>44992</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44424</v>
+        <v>44991</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44991</v>
+        <v>44424</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44756</v>
+        <v>44424</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44756</v>
+        <v>44238</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>667</v>
+        <v>1222</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44992</v>
+        <v>44235</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K12" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
         <v>13000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44242</v>
+        <v>44756</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>722</v>
+        <v>933</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44242</v>
+        <v>44756</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K17" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44992</v>
+        <v>44424</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44991</v>
+        <v>44424</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44991</v>
+        <v>44235</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44238</v>
+        <v>44991</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K7" t="n">
         <v>13000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>44991</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44536</v>
+        <v>44992</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44536</v>
+        <v>44756</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1111</v>
+        <v>933</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M14" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>722</v>
+        <v>1222</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44756</v>
+        <v>44242</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>933</v>
+        <v>722</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44756</v>
+        <v>44242</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>1222</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44235</v>
+        <v>44991</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44991</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44992</v>
+        <v>44238</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1433,24 +1433,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1111</v>
+        <v>1200</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1505,24 +1505,24 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44242</v>
+        <v>44992</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K17" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1222</v>
+        <v>778</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1111</v>
+        <v>667</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J4" t="n">
         <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44991</v>
+        <v>44238</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>44991</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>611</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44756</v>
+        <v>44424</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44756</v>
+        <v>44992</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K12" t="n">
         <v>14000</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K13" t="n">
         <v>12000</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
         <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1433,24 +1433,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1505,24 +1505,24 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M16" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>800</v>
+        <v>1222</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44992</v>
+        <v>44536</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>722</v>
+        <v>1111</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
         <v>13000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44991</v>
+        <v>44756</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>722</v>
+        <v>933</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44991</v>
+        <v>44756</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44424</v>
+        <v>44992</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44424</v>
+        <v>44238</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44992</v>
+        <v>44238</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44756</v>
+        <v>44424</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>933</v>
+        <v>1200</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44756</v>
+        <v>44424</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
         <v>12000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44242</v>
+        <v>44991</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K14" t="n">
         <v>13000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44242</v>
+        <v>44991</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44235</v>
+        <v>44991</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44235</v>
+        <v>44991</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>556</v>
+        <v>933</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44756</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>556</v>
+        <v>1222</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44756</v>
+        <v>44536</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>933</v>
+        <v>1111</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44756</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44992</v>
+        <v>44235</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44424</v>
+        <v>44238</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,24 +1217,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1200</v>
+        <v>611</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44991</v>
+        <v>44424</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,24 +1361,24 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44991</v>
+        <v>44242</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44536</v>
+        <v>44242</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L16" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M16" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44536</v>
+        <v>44992</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K17" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1111</v>
+        <v>722</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44991</v>
+        <v>44756</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>722</v>
+        <v>933</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44991</v>
+        <v>44756</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K3" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44756</v>
+        <v>44992</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>933</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44756</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44536</v>
+        <v>44242</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1111</v>
+        <v>1222</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44235</v>
+        <v>44991</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44235</v>
+        <v>44991</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1289,24 +1289,24 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44424</v>
+        <v>44238</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,24 +1361,24 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M15" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1505,24 +1505,24 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K16" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L16" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44992</v>
+        <v>44424</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44756</v>
+        <v>44991</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>933</v>
+        <v>722</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44756</v>
+        <v>44991</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44992</v>
+        <v>44756</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>933</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44756</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>556</v>
+        <v>1222</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1222</v>
+        <v>1111</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44991</v>
+        <v>44235</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44991</v>
+        <v>44235</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44235</v>
+        <v>44424</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1289,24 +1289,24 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,24 +1361,24 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L15" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1505,24 +1505,24 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M16" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44424</v>
+        <v>44992</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44756</v>
+        <v>44992</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>933</v>
+        <v>722</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44992</v>
+        <v>44756</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -792,17 +792,17 @@
         <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44536</v>
+        <v>44242</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44536</v>
+        <v>44242</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44991</v>
+        <v>44238</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K9" t="n">
         <v>13000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44991</v>
+        <v>44238</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>778</v>
+        <v>1222</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44424</v>
+        <v>44991</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1512,17 +1512,17 @@
         <v>75</v>
       </c>
       <c r="K16" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44424</v>
+        <v>44991</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44992</v>
+        <v>44242</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
         <v>13000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44756</v>
+        <v>44242</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>933</v>
+        <v>556</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44756</v>
+        <v>44536</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>800</v>
+        <v>1222</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,11 +929,11 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
         <v>10000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44536</v>
+        <v>44992</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="K11" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44536</v>
+        <v>44238</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K12" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1111</v>
+        <v>722</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
         <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,24 +1361,24 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1433,24 +1433,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K15" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M15" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44242</v>
+        <v>44756</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>722</v>
+        <v>933</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44242</v>
+        <v>44756</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44992</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44424</v>
+        <v>44991</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1008,17 +1008,17 @@
         <v>75</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44424</v>
+        <v>44991</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44992</v>
+        <v>44424</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,24 +1217,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44756</v>
+        <v>44242</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,24 +1361,24 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>933</v>
+        <v>556</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44756</v>
+        <v>44235</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1433,24 +1433,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M15" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44991</v>
+        <v>44235</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44991</v>
+        <v>44235</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44235</v>
+        <v>45131</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1428,29 +1428,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L15" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>778</v>
+        <v>1333</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44235</v>
+        <v>45131</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1500,29 +1500,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,58 +1557,418 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>56</v>
+      </c>
+      <c r="K17" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>1133</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>15</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>56</v>
+      </c>
+      <c r="K18" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>867</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>15</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>50</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>15</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
         <v>44235</v>
       </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Cultivar IV Región</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>80</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>778</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>18</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>70</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>667</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>18</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="J22" t="n">
         <v>60</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K22" t="n">
         <v>10000</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L22" t="n">
         <v>10000</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M22" t="n">
         <v>10000</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P17" t="n">
+      <c r="P22" t="n">
         <v>556</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q22" t="n">
         <v>18</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44235</v>
+        <v>45132</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44235</v>
+        <v>45132</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M21" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M22" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,12 +1963,156 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>70</v>
+      </c>
+      <c r="K23" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>667</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>18</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>60</v>
+      </c>
+      <c r="K24" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>18</v>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44536</v>
+        <v>45133</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44536</v>
+        <v>45133</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1111</v>
+        <v>867</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44238</v>
+        <v>44536</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M6" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>722</v>
+        <v>1222</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44238</v>
+        <v>44536</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -864,13 +864,13 @@
         <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>611</v>
+        <v>1111</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44992</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K8" t="n">
         <v>13000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44991</v>
+        <v>44238</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44424</v>
+        <v>44991</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1152,17 +1152,17 @@
         <v>75</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44424</v>
+        <v>44991</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1368,17 +1368,17 @@
         <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45131</v>
+        <v>44242</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1428,29 +1428,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1333</v>
+        <v>722</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45131</v>
+        <v>44242</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1500,29 +1500,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M16" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>56</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1133</v>
+        <v>1333</v>
       </c>
       <c r="Q17" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K18" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q18" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M19" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q19" t="n">
         <v>15</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45132</v>
+        <v>45131</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45132</v>
+        <v>45131</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L21" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>15</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44235</v>
+        <v>45132</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L22" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44235</v>
+        <v>45132</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="Q23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,12 +2107,156 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
       </c>
       <c r="R24" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>70</v>
+      </c>
+      <c r="K25" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>667</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>18</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>60</v>
+      </c>
+      <c r="K26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>18</v>
+      </c>
+      <c r="R26" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44991</v>
+        <v>45134</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>722</v>
+        <v>1333</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44991</v>
+        <v>45134</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44424</v>
+        <v>44991</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1296,17 +1296,17 @@
         <v>75</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44424</v>
+        <v>44991</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1512,17 +1512,17 @@
         <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45131</v>
+        <v>44242</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1333</v>
+        <v>722</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45131</v>
+        <v>44242</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1644,29 +1644,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>56</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1133</v>
+        <v>1333</v>
       </c>
       <c r="Q19" t="n">
         <v>15</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M21" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q21" t="n">
         <v>15</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45132</v>
+        <v>45131</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K22" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="Q22" t="n">
         <v>15</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45132</v>
+        <v>45131</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M23" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="Q23" t="n">
         <v>15</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44235</v>
+        <v>45132</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L24" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44235</v>
+        <v>45132</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K25" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L25" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="Q25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M26" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,12 +2251,156 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>70</v>
+      </c>
+      <c r="K27" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M27" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>667</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>18</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>60</v>
+      </c>
+      <c r="K28" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M28" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>18</v>
+      </c>
+      <c r="R28" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44756</v>
+        <v>45134</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>933</v>
+        <v>1333</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44756</v>
+        <v>45134</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45133</v>
+        <v>44991</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45133</v>
+        <v>44991</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>867</v>
+        <v>500</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44536</v>
+        <v>45131</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -780,29 +780,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="K6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1222</v>
+        <v>1333</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44536</v>
+        <v>45131</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -852,29 +852,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1111</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>45131</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>722</v>
+        <v>1133</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>45131</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>611</v>
+        <v>867</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44992</v>
+        <v>45131</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45134</v>
+        <v>44992</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K11" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1333</v>
+        <v>722</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45134</v>
+        <v>45132</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44991</v>
+        <v>45132</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1284,16 +1284,16 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K13" t="n">
         <v>13000</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>722</v>
+        <v>867</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44991</v>
+        <v>44242</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1433,24 +1433,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1505,24 +1505,24 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
         <v>10000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45131</v>
+        <v>44424</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1716,25 +1716,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1333</v>
+        <v>1200</v>
       </c>
       <c r="Q19" t="n">
         <v>15</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45131</v>
+        <v>44424</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45131</v>
+        <v>44536</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L21" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M21" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1133</v>
+        <v>1222</v>
       </c>
       <c r="Q21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45131</v>
+        <v>44536</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L22" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M22" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>867</v>
+        <v>1111</v>
       </c>
       <c r="Q22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45131</v>
+        <v>44238</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2004,41 +2004,41 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45132</v>
+        <v>44238</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2076,29 +2076,29 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M24" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1200</v>
+        <v>611</v>
       </c>
       <c r="Q24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45132</v>
+        <v>45138</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M25" t="n">
-        <v>13000</v>
+        <v>20408</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>867</v>
+        <v>1361</v>
       </c>
       <c r="Q25" t="n">
         <v>15</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44235</v>
+        <v>45138</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L26" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="Q26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2297,24 +2297,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K27" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M27" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="Q27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2369,24 +2369,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K28" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L28" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M28" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,12 +2395,156 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R28" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>68</v>
+      </c>
+      <c r="K29" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>15</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>50</v>
+      </c>
+      <c r="K30" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M30" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>867</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>15</v>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45134</v>
+        <v>44756</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K2" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1333</v>
+        <v>933</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45134</v>
+        <v>44756</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44991</v>
+        <v>45133</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44991</v>
+        <v>45133</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>500</v>
+        <v>867</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45131</v>
+        <v>44536</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -780,29 +780,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="K6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1333</v>
+        <v>1222</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45131</v>
+        <v>44536</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -852,29 +852,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45131</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1133</v>
+        <v>722</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45131</v>
+        <v>44238</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>867</v>
+        <v>611</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45131</v>
+        <v>44992</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44992</v>
+        <v>45134</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>722</v>
+        <v>1333</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45132</v>
+        <v>45134</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45132</v>
+        <v>44991</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1284,16 +1284,16 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K13" t="n">
         <v>13000</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>867</v>
+        <v>722</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44242</v>
+        <v>44991</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44242</v>
+        <v>45138</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1428,29 +1428,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="K15" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="M15" t="n">
-        <v>10000</v>
+        <v>20408</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>556</v>
+        <v>1361</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44235</v>
+        <v>45138</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1500,29 +1500,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44235</v>
+        <v>44424</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44235</v>
+        <v>44424</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K19" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44424</v>
+        <v>44242</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1800,17 +1800,17 @@
         <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44536</v>
+        <v>45131</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1860,29 +1860,29 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="K21" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L21" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1222</v>
+        <v>1333</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44536</v>
+        <v>45131</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1932,29 +1932,29 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K22" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L22" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1111</v>
+        <v>1200</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44238</v>
+        <v>45131</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="K23" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M23" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>722</v>
+        <v>1133</v>
       </c>
       <c r="Q23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44238</v>
+        <v>45131</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K24" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M24" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>611</v>
+        <v>867</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45138</v>
+        <v>45131</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L25" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M25" t="n">
-        <v>20408</v>
+        <v>12000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1361</v>
+        <v>800</v>
       </c>
       <c r="Q25" t="n">
         <v>15</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45138</v>
+        <v>45132</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K26" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q26" t="n">
         <v>15</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44756</v>
+        <v>45132</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,25 +2292,25 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L27" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="Q27" t="n">
         <v>15</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44756</v>
+        <v>44235</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2369,24 +2369,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M28" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="Q28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45133</v>
+        <v>44235</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K29" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45133</v>
+        <v>44235</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2508,29 +2508,29 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L30" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>867</v>
+        <v>556</v>
       </c>
       <c r="Q30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44756</v>
+        <v>45134</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>933</v>
+        <v>1333</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44756</v>
+        <v>45134</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45133</v>
+        <v>44991</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45133</v>
+        <v>44991</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>867</v>
+        <v>500</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44536</v>
+        <v>45131</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -780,29 +780,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="K6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1222</v>
+        <v>1333</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44536</v>
+        <v>45131</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -852,29 +852,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1111</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>45131</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>722</v>
+        <v>1133</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>45131</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>611</v>
+        <v>867</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44992</v>
+        <v>45131</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45134</v>
+        <v>44992</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K11" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1333</v>
+        <v>722</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45134</v>
+        <v>45132</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44991</v>
+        <v>45132</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1284,16 +1284,16 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K13" t="n">
         <v>13000</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>722</v>
+        <v>867</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44991</v>
+        <v>44242</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45138</v>
+        <v>44242</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1428,29 +1428,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>20408</v>
+        <v>10000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1361</v>
+        <v>556</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45138</v>
+        <v>44235</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1500,29 +1500,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="K16" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K17" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1800,17 +1800,17 @@
         <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45131</v>
+        <v>44536</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1860,29 +1860,29 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="K21" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M21" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1333</v>
+        <v>1222</v>
       </c>
       <c r="Q21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45131</v>
+        <v>44536</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1932,29 +1932,29 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M22" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="Q22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45131</v>
+        <v>44238</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L23" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1133</v>
+        <v>722</v>
       </c>
       <c r="Q23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45131</v>
+        <v>44238</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L24" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M24" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>867</v>
+        <v>611</v>
       </c>
       <c r="Q24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="K25" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L25" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M25" t="n">
-        <v>12000</v>
+        <v>20408</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>800</v>
+        <v>1361</v>
       </c>
       <c r="Q25" t="n">
         <v>15</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45132</v>
+        <v>45138</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q26" t="n">
         <v>15</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45132</v>
+        <v>45140</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,29 +2292,29 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K27" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M27" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>867</v>
+        <v>1111</v>
       </c>
       <c r="Q27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K28" t="n">
         <v>14000</v>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44235</v>
+        <v>44756</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K29" t="n">
         <v>12000</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44235</v>
+        <v>45133</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2508,29 +2508,29 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K30" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L30" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M30" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,12 +2539,84 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R30" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>50</v>
+      </c>
+      <c r="K31" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M31" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>867</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>15</v>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45138</v>
+        <v>45142</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="K25" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L25" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M25" t="n">
-        <v>20408</v>
+        <v>23000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1361</v>
+        <v>1533</v>
       </c>
       <c r="Q25" t="n">
         <v>15</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45138</v>
+        <v>45142</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="K26" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M26" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q26" t="n">
         <v>15</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45140</v>
+        <v>45142</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,29 +2292,29 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L27" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1111</v>
+        <v>1200</v>
       </c>
       <c r="Q27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44756</v>
+        <v>45138</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L28" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M28" t="n">
-        <v>14000</v>
+        <v>20408</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>933</v>
+        <v>1361</v>
       </c>
       <c r="Q28" t="n">
         <v>15</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44756</v>
+        <v>45138</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K29" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L29" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q29" t="n">
         <v>15</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K30" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L30" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M30" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="Q30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45133</v>
+        <v>44756</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2580,25 +2580,25 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K31" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M31" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,12 +2611,228 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="Q31" t="n">
         <v>15</v>
       </c>
       <c r="R31" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>68</v>
+      </c>
+      <c r="K32" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>15</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>68</v>
+      </c>
+      <c r="K33" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>15</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>50</v>
+      </c>
+      <c r="K34" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>867</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>15</v>
+      </c>
+      <c r="R34" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1333</v>
+        <v>1467</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -852,25 +852,25 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>56</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1133</v>
+        <v>1333</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44992</v>
+        <v>45131</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1140,12 +1140,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>722</v>
+        <v>867</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45132</v>
+        <v>45131</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45132</v>
+        <v>44992</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1284,16 +1284,16 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K13" t="n">
         <v>13000</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>867</v>
+        <v>722</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44242</v>
+        <v>45132</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44242</v>
+        <v>45132</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>556</v>
+        <v>867</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M18" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1721,24 +1721,24 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1793,24 +1793,24 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K21" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L21" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44238</v>
+        <v>44536</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K23" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M23" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>722</v>
+        <v>1222</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44238</v>
+        <v>44536</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2088,13 +2088,13 @@
         <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L24" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>611</v>
+        <v>1111</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45142</v>
+        <v>44238</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K25" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L25" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1533</v>
+        <v>722</v>
       </c>
       <c r="Q25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45142</v>
+        <v>44238</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2220,41 +2220,41 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="L26" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="M26" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1400</v>
+        <v>611</v>
       </c>
       <c r="Q26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M27" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1200</v>
+        <v>1533</v>
       </c>
       <c r="Q27" t="n">
         <v>15</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45138</v>
+        <v>45142</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="K28" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L28" t="n">
         <v>21000</v>
       </c>
       <c r="M28" t="n">
-        <v>20408</v>
+        <v>21000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1361</v>
+        <v>1400</v>
       </c>
       <c r="Q28" t="n">
         <v>15</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45138</v>
+        <v>45142</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q29" t="n">
         <v>15</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45140</v>
+        <v>45138</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="K30" t="n">
         <v>20000</v>
       </c>
       <c r="L30" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M30" t="n">
-        <v>20000</v>
+        <v>20408</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1111</v>
+        <v>1361</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44756</v>
+        <v>45138</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2580,25 +2580,25 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="Q31" t="n">
         <v>15</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44756</v>
+        <v>45140</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2657,24 +2657,24 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K32" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L32" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="Q32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45133</v>
+        <v>44756</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K33" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M33" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1200</v>
+        <v>933</v>
       </c>
       <c r="Q33" t="n">
         <v>15</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45133</v>
+        <v>44756</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L34" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M34" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,12 +2827,156 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="Q34" t="n">
         <v>15</v>
       </c>
       <c r="R34" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>68</v>
+      </c>
+      <c r="K35" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M35" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>15</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>50</v>
+      </c>
+      <c r="K36" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M36" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>867</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>15</v>
+      </c>
+      <c r="R36" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45145</v>
+        <v>45149</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K6" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L6" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M6" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1467</v>
+        <v>1600</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45145</v>
+        <v>45149</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1333</v>
+        <v>1467</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -996,25 +996,25 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1133</v>
+        <v>1333</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44992</v>
+        <v>45131</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>722</v>
+        <v>867</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45132</v>
+        <v>45131</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
         <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45132</v>
+        <v>44992</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1428,16 +1428,16 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K15" t="n">
         <v>13000</v>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>867</v>
+        <v>722</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44242</v>
+        <v>45132</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44242</v>
+        <v>45132</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K17" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>556</v>
+        <v>867</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L18" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L19" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1865,24 +1865,24 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K21" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1937,24 +1937,24 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L22" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K23" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L23" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K24" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L24" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M24" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44238</v>
+        <v>44536</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M25" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>722</v>
+        <v>1222</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44238</v>
+        <v>44536</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2232,13 +2232,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L26" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M26" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>611</v>
+        <v>1111</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45142</v>
+        <v>44238</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K27" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L27" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1533</v>
+        <v>722</v>
       </c>
       <c r="Q27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45142</v>
+        <v>44238</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2364,41 +2364,41 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="L28" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="M28" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1400</v>
+        <v>611</v>
       </c>
       <c r="Q28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K29" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M29" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1200</v>
+        <v>1533</v>
       </c>
       <c r="Q29" t="n">
         <v>15</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45138</v>
+        <v>45142</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="K30" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L30" t="n">
         <v>21000</v>
       </c>
       <c r="M30" t="n">
-        <v>20408</v>
+        <v>21000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1361</v>
+        <v>1400</v>
       </c>
       <c r="Q30" t="n">
         <v>15</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45138</v>
+        <v>45142</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q31" t="n">
         <v>15</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45140</v>
+        <v>45138</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="K32" t="n">
         <v>20000</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M32" t="n">
-        <v>20000</v>
+        <v>20408</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1111</v>
+        <v>1361</v>
       </c>
       <c r="Q32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44756</v>
+        <v>45138</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2724,25 +2724,25 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L33" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="Q33" t="n">
         <v>15</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44756</v>
+        <v>45140</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2801,24 +2801,24 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K34" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L34" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M34" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="Q34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45133</v>
+        <v>44756</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K35" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M35" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1200</v>
+        <v>933</v>
       </c>
       <c r="Q35" t="n">
         <v>15</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45133</v>
+        <v>44756</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K36" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L36" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M36" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,12 +2971,156 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="Q36" t="n">
         <v>15</v>
       </c>
       <c r="R36" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>68</v>
+      </c>
+      <c r="K37" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>15</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>50</v>
+      </c>
+      <c r="K38" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M38" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>867</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>15</v>
+      </c>
+      <c r="R38" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45134</v>
+        <v>45132</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1333</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45134</v>
+        <v>45132</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44991</v>
+        <v>45149</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>1600</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44991</v>
+        <v>45149</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,17 +720,17 @@
         <v>56</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K6" t="n">
         <v>24000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>1533</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45145</v>
+        <v>45155</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K8" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1467</v>
+        <v>1133</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45145</v>
+        <v>44235</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1133</v>
+        <v>778</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45131</v>
+        <v>44235</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,29 +1068,29 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45131</v>
+        <v>44235</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45131</v>
+        <v>45133</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45131</v>
+        <v>45133</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
         <v>13000</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>1333</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44992</v>
+        <v>45131</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45132</v>
+        <v>45131</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q16" t="n">
         <v>15</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45132</v>
+        <v>45131</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K17" t="n">
         <v>13000</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44242</v>
+        <v>45131</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44242</v>
+        <v>45142</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1716,29 +1716,29 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K19" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="M19" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>556</v>
+        <v>1533</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44235</v>
+        <v>45142</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M20" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>778</v>
+        <v>1400</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44235</v>
+        <v>45142</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K22" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M22" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>556</v>
+        <v>1222</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2009,24 +2009,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="Q23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44424</v>
+        <v>44756</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K24" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="Q24" t="n">
         <v>15</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44536</v>
+        <v>44756</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2153,24 +2153,24 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K25" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L25" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M25" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1222</v>
+        <v>800</v>
       </c>
       <c r="Q25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44536</v>
+        <v>44238</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K26" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L26" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M26" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1111</v>
+        <v>722</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K27" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M27" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44238</v>
+        <v>44424</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2369,24 +2369,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K28" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L28" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>611</v>
+        <v>1200</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45142</v>
+        <v>44424</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L29" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1533</v>
+        <v>800</v>
       </c>
       <c r="Q29" t="n">
         <v>15</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45142</v>
+        <v>45138</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="K30" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="L30" t="n">
         <v>21000</v>
       </c>
       <c r="M30" t="n">
-        <v>21000</v>
+        <v>20408</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1400</v>
+        <v>1361</v>
       </c>
       <c r="Q30" t="n">
         <v>15</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45142</v>
+        <v>45138</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K31" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q31" t="n">
         <v>15</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45138</v>
+        <v>45140</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="K32" t="n">
         <v>20000</v>
       </c>
       <c r="L32" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>20408</v>
+        <v>20000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1361</v>
+        <v>1111</v>
       </c>
       <c r="Q32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2724,25 +2724,25 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="K33" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M33" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1000</v>
+        <v>1467</v>
       </c>
       <c r="Q33" t="n">
         <v>15</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45140</v>
+        <v>45145</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2801,24 +2801,24 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M34" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1111</v>
+        <v>1133</v>
       </c>
       <c r="Q34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44756</v>
+        <v>44991</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M35" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>933</v>
+        <v>722</v>
       </c>
       <c r="Q35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44756</v>
+        <v>44991</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K36" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L36" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M36" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3024,13 +3024,13 @@
         <v>68</v>
       </c>
       <c r="K37" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L37" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M37" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="Q37" t="n">
         <v>15</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L38" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,12 +3115,228 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q38" t="n">
         <v>15</v>
       </c>
       <c r="R38" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>56</v>
+      </c>
+      <c r="K39" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M39" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>18</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>60</v>
+      </c>
+      <c r="K40" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>18</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>50</v>
+      </c>
+      <c r="K41" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>18</v>
+      </c>
+      <c r="R41" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45132</v>
+        <v>45134</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45132</v>
+        <v>45134</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45149</v>
+        <v>44991</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K4" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1600</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45149</v>
+        <v>44991</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,17 +720,17 @@
         <v>56</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45155</v>
+        <v>45149</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K6" t="n">
         <v>24000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45155</v>
+        <v>45149</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K7" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1533</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45155</v>
+        <v>45145</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1133</v>
+        <v>1467</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44235</v>
+        <v>45145</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>778</v>
+        <v>1133</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44235</v>
+        <v>45131</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,29 +1068,29 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>667</v>
+        <v>1333</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44235</v>
+        <v>45131</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45133</v>
+        <v>45131</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45133</v>
+        <v>45131</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K13" t="n">
         <v>13000</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1333</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45131</v>
+        <v>44992</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q16" t="n">
         <v>15</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K17" t="n">
         <v>13000</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45131</v>
+        <v>44242</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45142</v>
+        <v>44242</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1716,29 +1716,29 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L19" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1533</v>
+        <v>556</v>
       </c>
       <c r="Q19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45142</v>
+        <v>44235</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1400</v>
+        <v>778</v>
       </c>
       <c r="Q20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45142</v>
+        <v>44235</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="K21" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="K22" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L22" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2009,24 +2009,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K23" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L23" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1111</v>
+        <v>1200</v>
       </c>
       <c r="Q23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44756</v>
+        <v>44424</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L24" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M24" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="Q24" t="n">
         <v>15</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44756</v>
+        <v>45155</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2148,25 +2148,25 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K25" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="L25" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M25" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="Q25" t="n">
         <v>15</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44238</v>
+        <v>45155</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L26" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M26" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>722</v>
+        <v>1533</v>
       </c>
       <c r="Q26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44238</v>
+        <v>45155</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K27" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M27" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>611</v>
+        <v>1133</v>
       </c>
       <c r="Q27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K28" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M28" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1200</v>
+        <v>1222</v>
       </c>
       <c r="Q28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K29" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L29" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M29" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="Q29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45138</v>
+        <v>44238</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K30" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="M30" t="n">
-        <v>20408</v>
+        <v>13000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1361</v>
+        <v>722</v>
       </c>
       <c r="Q30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45138</v>
+        <v>44238</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M31" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="Q31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45140</v>
+        <v>45142</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2664,17 +2664,17 @@
         <v>56</v>
       </c>
       <c r="K32" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M32" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1111</v>
+        <v>1533</v>
       </c>
       <c r="Q32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45145</v>
+        <v>45142</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K33" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="L33" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="M33" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1467</v>
+        <v>1400</v>
       </c>
       <c r="Q33" t="n">
         <v>15</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45145</v>
+        <v>45142</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L34" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q34" t="n">
         <v>15</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44991</v>
+        <v>45138</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L35" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M35" t="n">
-        <v>13000</v>
+        <v>20408</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>722</v>
+        <v>1361</v>
       </c>
       <c r="Q35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44991</v>
+        <v>45138</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K36" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L36" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45134</v>
+        <v>45140</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K37" t="n">
         <v>20000</v>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1333</v>
+        <v>1111</v>
       </c>
       <c r="Q37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45134</v>
+        <v>44756</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K38" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M38" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="Q38" t="n">
         <v>15</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44992</v>
+        <v>44756</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3161,24 +3161,24 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K39" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L39" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M39" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44242</v>
+        <v>45133</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K40" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L40" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M40" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44242</v>
+        <v>45133</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3312,17 +3312,17 @@
         <v>50</v>
       </c>
       <c r="K41" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L41" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M41" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>556</v>
+        <v>867</v>
       </c>
       <c r="Q41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45134</v>
+        <v>45132</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1333</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45134</v>
+        <v>45132</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44991</v>
+        <v>45149</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>1600</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44991</v>
+        <v>45149</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,17 +720,17 @@
         <v>56</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K6" t="n">
         <v>24000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>1533</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45145</v>
+        <v>45155</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K8" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1467</v>
+        <v>1133</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45145</v>
+        <v>44235</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1133</v>
+        <v>778</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45131</v>
+        <v>44235</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,29 +1068,29 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45131</v>
+        <v>44235</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45131</v>
+        <v>45133</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45131</v>
+        <v>45133</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
         <v>13000</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>1333</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44992</v>
+        <v>45131</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45132</v>
+        <v>45131</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q16" t="n">
         <v>15</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45132</v>
+        <v>45131</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K17" t="n">
         <v>13000</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44242</v>
+        <v>45131</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44242</v>
+        <v>45142</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1716,29 +1716,29 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K19" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="M19" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>556</v>
+        <v>1533</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44235</v>
+        <v>45142</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M20" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>778</v>
+        <v>1400</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44235</v>
+        <v>45142</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K22" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M22" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>556</v>
+        <v>1222</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2009,24 +2009,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="Q23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44424</v>
+        <v>44756</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K24" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="Q24" t="n">
         <v>15</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45155</v>
+        <v>44756</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2148,25 +2148,25 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K25" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L25" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M25" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="Q25" t="n">
         <v>15</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45155</v>
+        <v>44238</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K26" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L26" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M26" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1533</v>
+        <v>722</v>
       </c>
       <c r="Q26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45155</v>
+        <v>44238</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L27" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M27" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1133</v>
+        <v>611</v>
       </c>
       <c r="Q27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K28" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L28" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44536</v>
+        <v>44424</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L29" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44238</v>
+        <v>45138</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L30" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M30" t="n">
-        <v>13000</v>
+        <v>20408</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>722</v>
+        <v>1361</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44238</v>
+        <v>45138</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="K31" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="Q31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45142</v>
+        <v>45140</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2664,17 +2664,17 @@
         <v>56</v>
       </c>
       <c r="K32" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L32" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1533</v>
+        <v>1111</v>
       </c>
       <c r="Q32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K33" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L33" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M33" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1400</v>
+        <v>1467</v>
       </c>
       <c r="Q33" t="n">
         <v>15</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M34" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q34" t="n">
         <v>15</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45138</v>
+        <v>44991</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="K35" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="M35" t="n">
-        <v>20408</v>
+        <v>13000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1361</v>
+        <v>722</v>
       </c>
       <c r="Q35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45138</v>
+        <v>44991</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K36" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M36" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45140</v>
+        <v>45134</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K37" t="n">
         <v>20000</v>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1111</v>
+        <v>1333</v>
       </c>
       <c r="Q37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44756</v>
+        <v>45134</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L38" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="Q38" t="n">
         <v>15</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44756</v>
+        <v>44992</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3161,24 +3161,24 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K39" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L39" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M39" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45133</v>
+        <v>44242</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L40" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M40" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45133</v>
+        <v>44242</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3312,17 +3312,17 @@
         <v>50</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L41" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>867</v>
+        <v>556</v>
       </c>
       <c r="Q41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45132</v>
+        <v>45160</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>1533</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45132</v>
+        <v>45160</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>867</v>
+        <v>1133</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45149</v>
+        <v>45132</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L4" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45149</v>
+        <v>45132</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45155</v>
+        <v>45149</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K6" t="n">
         <v>24000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45155</v>
+        <v>45149</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K7" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1533</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1133</v>
+        <v>1600</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44235</v>
+        <v>45155</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>778</v>
+        <v>1533</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44235</v>
+        <v>45155</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>667</v>
+        <v>1133</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45133</v>
+        <v>44235</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1212,29 +1212,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45133</v>
+        <v>44235</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1284,29 +1284,29 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>867</v>
+        <v>556</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45131</v>
+        <v>45133</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1333</v>
+        <v>1200</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45131</v>
+        <v>45133</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="Q15" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>56</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M16" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1133</v>
+        <v>1333</v>
       </c>
       <c r="Q16" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q17" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q18" t="n">
         <v>15</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45142</v>
+        <v>45131</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>56</v>
       </c>
       <c r="K19" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1533</v>
+        <v>867</v>
       </c>
       <c r="Q19" t="n">
         <v>15</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45142</v>
+        <v>45131</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M21" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1200</v>
+        <v>1533</v>
       </c>
       <c r="Q21" t="n">
         <v>15</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44536</v>
+        <v>45142</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K22" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="L22" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="M22" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1222</v>
+        <v>1400</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44536</v>
+        <v>45142</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="K23" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L23" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1111</v>
+        <v>1200</v>
       </c>
       <c r="Q23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44756</v>
+        <v>44536</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L24" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M24" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>933</v>
+        <v>1222</v>
       </c>
       <c r="Q24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44756</v>
+        <v>44536</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L25" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M25" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="Q25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44238</v>
+        <v>44756</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M26" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>722</v>
+        <v>933</v>
       </c>
       <c r="Q26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44238</v>
+        <v>44756</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K27" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L27" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M27" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="Q27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44424</v>
+        <v>44238</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K28" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44424</v>
+        <v>44238</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K29" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L29" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M29" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>800</v>
+        <v>611</v>
       </c>
       <c r="Q29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45138</v>
+        <v>44424</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="K30" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L30" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M30" t="n">
-        <v>20408</v>
+        <v>18000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1361</v>
+        <v>1200</v>
       </c>
       <c r="Q30" t="n">
         <v>15</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45138</v>
+        <v>44424</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M31" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q31" t="n">
         <v>15</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45140</v>
+        <v>45138</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="K32" t="n">
         <v>20000</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M32" t="n">
-        <v>20000</v>
+        <v>20408</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1111</v>
+        <v>1361</v>
       </c>
       <c r="Q32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45145</v>
+        <v>45138</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2724,25 +2724,25 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K33" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L33" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1467</v>
+        <v>1000</v>
       </c>
       <c r="Q33" t="n">
         <v>15</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45145</v>
+        <v>45140</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2801,24 +2801,24 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L34" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M34" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1133</v>
+        <v>1111</v>
       </c>
       <c r="Q34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44991</v>
+        <v>45145</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L35" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M35" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>722</v>
+        <v>1467</v>
       </c>
       <c r="Q35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44991</v>
+        <v>45145</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L36" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M36" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>500</v>
+        <v>1133</v>
       </c>
       <c r="Q36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45134</v>
+        <v>44991</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K37" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L37" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M37" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1333</v>
+        <v>722</v>
       </c>
       <c r="Q37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45134</v>
+        <v>44991</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K38" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M38" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q38" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44992</v>
+        <v>45134</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K39" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L39" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M39" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>722</v>
+        <v>1333</v>
       </c>
       <c r="Q39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44242</v>
+        <v>45134</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3228,29 +3228,29 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L40" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M40" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="Q40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44242</v>
+        <v>44992</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K41" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L41" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M41" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,12 +3331,156 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q41" t="n">
         <v>18</v>
       </c>
       <c r="R41" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>60</v>
+      </c>
+      <c r="K42" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L42" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M42" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>18</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>50</v>
+      </c>
+      <c r="K43" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>18</v>
+      </c>
+      <c r="R43" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45138</v>
+        <v>45161</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="K32" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L32" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M32" t="n">
-        <v>20408</v>
+        <v>23000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1361</v>
+        <v>1533</v>
       </c>
       <c r="Q32" t="n">
         <v>15</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45138</v>
+        <v>45161</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="K33" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M33" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1000</v>
+        <v>1133</v>
       </c>
       <c r="Q33" t="n">
         <v>15</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45140</v>
+        <v>45138</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="K34" t="n">
         <v>20000</v>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M34" t="n">
-        <v>20000</v>
+        <v>20408</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1111</v>
+        <v>1361</v>
       </c>
       <c r="Q34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45145</v>
+        <v>45138</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K35" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L35" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1467</v>
+        <v>1000</v>
       </c>
       <c r="Q35" t="n">
         <v>15</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45145</v>
+        <v>45140</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2945,24 +2945,24 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K36" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L36" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M36" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1133</v>
+        <v>1111</v>
       </c>
       <c r="Q36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44991</v>
+        <v>45145</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K37" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L37" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M37" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>722</v>
+        <v>1467</v>
       </c>
       <c r="Q37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44991</v>
+        <v>45145</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L38" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M38" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>500</v>
+        <v>1133</v>
       </c>
       <c r="Q38" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45134</v>
+        <v>44991</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K39" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L39" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M39" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1333</v>
+        <v>722</v>
       </c>
       <c r="Q39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45134</v>
+        <v>44991</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K40" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L40" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44992</v>
+        <v>45134</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L41" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M41" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>722</v>
+        <v>1333</v>
       </c>
       <c r="Q41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44242</v>
+        <v>45134</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3372,29 +3372,29 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
         <v>60</v>
       </c>
       <c r="K42" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L42" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M42" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="Q42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44242</v>
+        <v>44992</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K43" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L43" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M43" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,12 +3475,156 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q43" t="n">
         <v>18</v>
       </c>
       <c r="R43" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>60</v>
+      </c>
+      <c r="K44" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M44" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>18</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>50</v>
+      </c>
+      <c r="K45" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M45" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>18</v>
+      </c>
+      <c r="R45" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44242</v>
+        <v>45166</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K44" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L44" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M44" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>722</v>
+        <v>1467</v>
       </c>
       <c r="Q44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44242</v>
+        <v>45166</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3600,31 +3600,175 @@
         <v>50</v>
       </c>
       <c r="K45" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M45" t="n">
+        <v>16000</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>1067</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>15</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>60</v>
+      </c>
+      <c r="K46" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M46" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>18</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>50</v>
+      </c>
+      <c r="K47" t="n">
         <v>10000</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L47" t="n">
         <v>10000</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M47" t="n">
         <v>10000</v>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
         <v>556</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q47" t="n">
         <v>18</v>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44992</v>
+        <v>45173</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="K43" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L43" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="M43" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>722</v>
+        <v>1667</v>
       </c>
       <c r="Q43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45166</v>
+        <v>45173</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K44" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L44" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M44" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1467</v>
+        <v>1200</v>
       </c>
       <c r="Q44" t="n">
         <v>15</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45166</v>
+        <v>44992</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3588,29 +3588,29 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K45" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L45" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M45" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1067</v>
+        <v>722</v>
       </c>
       <c r="Q45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44242</v>
+        <v>45166</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K46" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L46" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M46" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>722</v>
+        <v>1467</v>
       </c>
       <c r="Q46" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44242</v>
+        <v>45166</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3744,31 +3744,175 @@
         <v>50</v>
       </c>
       <c r="K47" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L47" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M47" t="n">
+        <v>16000</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>1067</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>15</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>60</v>
+      </c>
+      <c r="K48" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L48" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M48" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>18</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>50</v>
+      </c>
+      <c r="K49" t="n">
         <v>10000</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L49" t="n">
         <v>10000</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M49" t="n">
         <v>10000</v>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
         <v>556</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q49" t="n">
         <v>18</v>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44756</v>
+        <v>45175</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L26" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M26" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>933</v>
+        <v>1600</v>
       </c>
       <c r="Q26" t="n">
         <v>15</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44756</v>
+        <v>45175</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K27" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L27" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M27" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>800</v>
+        <v>1267</v>
       </c>
       <c r="Q27" t="n">
         <v>15</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44238</v>
+        <v>44756</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>722</v>
+        <v>933</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44238</v>
+        <v>44756</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K29" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L29" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44424</v>
+        <v>44238</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K30" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M30" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44424</v>
+        <v>44238</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K31" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L31" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M31" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>800</v>
+        <v>611</v>
       </c>
       <c r="Q31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45161</v>
+        <v>44424</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K32" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L32" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1533</v>
+        <v>1200</v>
       </c>
       <c r="Q32" t="n">
         <v>15</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45161</v>
+        <v>44424</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L33" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M33" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1133</v>
+        <v>800</v>
       </c>
       <c r="Q33" t="n">
         <v>15</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45138</v>
+        <v>45161</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="K34" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L34" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M34" t="n">
-        <v>20408</v>
+        <v>23000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1361</v>
+        <v>1533</v>
       </c>
       <c r="Q34" t="n">
         <v>15</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45138</v>
+        <v>45161</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="K35" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M35" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1000</v>
+        <v>1133</v>
       </c>
       <c r="Q35" t="n">
         <v>15</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45140</v>
+        <v>45138</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="K36" t="n">
         <v>20000</v>
       </c>
       <c r="L36" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M36" t="n">
-        <v>20000</v>
+        <v>20408</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1111</v>
+        <v>1361</v>
       </c>
       <c r="Q36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45145</v>
+        <v>45138</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3012,25 +3012,25 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K37" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L37" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1467</v>
+        <v>1000</v>
       </c>
       <c r="Q37" t="n">
         <v>15</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45145</v>
+        <v>45140</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3089,24 +3089,24 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K38" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L38" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M38" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1133</v>
+        <v>1111</v>
       </c>
       <c r="Q38" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44991</v>
+        <v>45145</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K39" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L39" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M39" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>722</v>
+        <v>1467</v>
       </c>
       <c r="Q39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44991</v>
+        <v>45145</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L40" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M40" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>500</v>
+        <v>1133</v>
       </c>
       <c r="Q40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45134</v>
+        <v>44991</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K41" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L41" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M41" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1333</v>
+        <v>722</v>
       </c>
       <c r="Q41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45134</v>
+        <v>44991</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K42" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L42" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M42" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45173</v>
+        <v>45134</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K43" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L43" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M43" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="Q43" t="n">
         <v>15</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45173</v>
+        <v>45134</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L44" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M44" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q44" t="n">
         <v>15</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44992</v>
+        <v>45173</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,20 +3597,20 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="K45" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L45" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="M45" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>722</v>
+        <v>1667</v>
       </c>
       <c r="Q45" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45166</v>
+        <v>45173</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K46" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L46" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M46" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1467</v>
+        <v>1200</v>
       </c>
       <c r="Q46" t="n">
         <v>15</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45166</v>
+        <v>44992</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K47" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M47" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1067</v>
+        <v>722</v>
       </c>
       <c r="Q47" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44242</v>
+        <v>45166</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K48" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L48" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M48" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>722</v>
+        <v>1467</v>
       </c>
       <c r="Q48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44242</v>
+        <v>45166</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3888,31 +3888,175 @@
         <v>50</v>
       </c>
       <c r="K49" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M49" t="n">
+        <v>16000</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>1067</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>15</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>60</v>
+      </c>
+      <c r="K50" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M50" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>18</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>50</v>
+      </c>
+      <c r="K51" t="n">
         <v>10000</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L51" t="n">
         <v>10000</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M51" t="n">
         <v>10000</v>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
         <v>556</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q51" t="n">
         <v>18</v>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45160</v>
+        <v>45132</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1533</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45160</v>
+        <v>45132</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1133</v>
+        <v>867</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45132</v>
+        <v>45155</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K4" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45132</v>
+        <v>45155</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M5" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>867</v>
+        <v>1533</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K6" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1600</v>
+        <v>1133</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45149</v>
+        <v>44992</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -852,29 +852,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
         <v>56</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45155</v>
+        <v>45160</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K8" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L8" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M8" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1600</v>
+        <v>1533</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45155</v>
+        <v>45160</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1533</v>
+        <v>1133</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45155</v>
+        <v>44536</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,29 +1068,29 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M10" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1133</v>
+        <v>1222</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
         <v>80</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44235</v>
+        <v>45142</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1212,29 +1212,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>667</v>
+        <v>1533</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44235</v>
+        <v>45142</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>556</v>
+        <v>1400</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45133</v>
+        <v>45142</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,11 +1361,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K14" t="n">
         <v>18000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>867</v>
+        <v>1333</v>
       </c>
       <c r="Q15" t="n">
         <v>15</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45131</v>
+        <v>45134</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K16" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L16" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="Q17" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q18" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>56</v>
       </c>
       <c r="K19" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M19" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>867</v>
+        <v>1133</v>
       </c>
       <c r="Q19" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45142</v>
+        <v>45131</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L21" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1533</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>15</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45142</v>
+        <v>45138</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="K22" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="L22" t="n">
         <v>21000</v>
       </c>
       <c r="M22" t="n">
-        <v>21000</v>
+        <v>20408</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1400</v>
+        <v>1361</v>
       </c>
       <c r="Q22" t="n">
         <v>15</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45142</v>
+        <v>45138</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K23" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q23" t="n">
         <v>15</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44536</v>
+        <v>45166</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K24" t="n">
         <v>22000</v>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1222</v>
+        <v>1467</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44536</v>
+        <v>45166</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L25" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M25" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1111</v>
+        <v>1067</v>
       </c>
       <c r="Q25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45175</v>
+        <v>44424</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K26" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L26" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="Q26" t="n">
         <v>15</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45175</v>
+        <v>44424</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K27" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L27" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M27" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1267</v>
+        <v>800</v>
       </c>
       <c r="Q27" t="n">
         <v>15</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44756</v>
+        <v>45161</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L28" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M28" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>933</v>
+        <v>1533</v>
       </c>
       <c r="Q28" t="n">
         <v>15</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44756</v>
+        <v>45161</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="K29" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M29" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q29" t="n">
         <v>15</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44238</v>
+        <v>45133</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L30" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M30" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44238</v>
+        <v>45133</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L31" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M31" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>611</v>
+        <v>867</v>
       </c>
       <c r="Q31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M32" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="Q32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K33" t="n">
         <v>12000</v>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45161</v>
+        <v>44235</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2796,29 +2796,29 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L34" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="M34" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1533</v>
+        <v>556</v>
       </c>
       <c r="Q34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45161</v>
+        <v>45145</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K35" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L35" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M35" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1133</v>
+        <v>1467</v>
       </c>
       <c r="Q35" t="n">
         <v>15</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2940,25 +2940,25 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L36" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="M36" t="n">
-        <v>20408</v>
+        <v>17000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1361</v>
+        <v>1133</v>
       </c>
       <c r="Q36" t="n">
         <v>15</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45138</v>
+        <v>44242</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3012,29 +3012,29 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M37" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="Q37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45140</v>
+        <v>44242</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L38" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M38" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="Q38" t="n">
         <v>18</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45145</v>
+        <v>45140</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K39" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L39" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M39" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1467</v>
+        <v>1111</v>
       </c>
       <c r="Q39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45145</v>
+        <v>44756</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K40" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L40" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M40" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1133</v>
+        <v>933</v>
       </c>
       <c r="Q40" t="n">
         <v>15</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44991</v>
+        <v>44756</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3305,24 +3305,24 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L41" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M41" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44991</v>
+        <v>45149</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3372,29 +3372,29 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K42" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L42" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="M42" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="Q42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45134</v>
+        <v>45149</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K43" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L43" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M43" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1333</v>
+        <v>1200</v>
       </c>
       <c r="Q43" t="n">
         <v>15</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45134</v>
+        <v>45175</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K44" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="L44" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M44" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="Q44" t="n">
         <v>15</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45173</v>
+        <v>45175</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K45" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="L45" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="M45" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1667</v>
+        <v>1267</v>
       </c>
       <c r="Q45" t="n">
         <v>15</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K46" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L46" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M46" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1200</v>
+        <v>1667</v>
       </c>
       <c r="Q46" t="n">
         <v>15</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44992</v>
+        <v>45173</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K47" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L47" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M47" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q47" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45166</v>
+        <v>44991</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K48" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L48" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M48" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1467</v>
+        <v>722</v>
       </c>
       <c r="Q48" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45166</v>
+        <v>44991</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,20 +3885,20 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K49" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L49" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M49" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1067</v>
+        <v>500</v>
       </c>
       <c r="Q49" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K50" t="n">
         <v>13000</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K51" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L51" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M51" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q51" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K2" t="n">
         <v>18000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
         <v>13000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45155</v>
+        <v>45131</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K4" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L4" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1600</v>
+        <v>1333</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45155</v>
+        <v>45131</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K5" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1533</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45155</v>
+        <v>45131</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,7 +785,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -807,7 +807,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44992</v>
+        <v>45131</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -852,12 +852,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -874,7 +874,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>722</v>
+        <v>867</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45160</v>
+        <v>45131</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1533</v>
+        <v>800</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45160</v>
+        <v>45166</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1133</v>
+        <v>1467</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44536</v>
+        <v>45166</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,29 +1068,29 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L10" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1222</v>
+        <v>1067</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44536</v>
+        <v>45132</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1111</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45142</v>
+        <v>45132</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K12" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1533</v>
+        <v>867</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45142</v>
+        <v>45138</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="K13" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="L13" t="n">
         <v>21000</v>
       </c>
       <c r="M13" t="n">
-        <v>21000</v>
+        <v>20408</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1400</v>
+        <v>1361</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45142</v>
+        <v>45138</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45134</v>
+        <v>45160</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="K15" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M15" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1333</v>
+        <v>1533</v>
       </c>
       <c r="Q15" t="n">
         <v>15</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45134</v>
+        <v>45160</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>1133</v>
       </c>
       <c r="Q16" t="n">
         <v>15</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1333</v>
+        <v>1467</v>
       </c>
       <c r="Q17" t="n">
         <v>15</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1644,25 +1644,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q18" t="n">
         <v>15</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45131</v>
+        <v>45196</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L19" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M19" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1133</v>
+        <v>1600</v>
       </c>
       <c r="Q19" t="n">
         <v>15</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45131</v>
+        <v>45196</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1800,13 +1800,13 @@
         <v>56</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45131</v>
+        <v>45196</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M21" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="Q21" t="n">
         <v>15</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45138</v>
+        <v>45173</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="K22" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L22" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M22" t="n">
-        <v>20408</v>
+        <v>25000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1361</v>
+        <v>1667</v>
       </c>
       <c r="Q22" t="n">
         <v>15</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45138</v>
+        <v>45173</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q23" t="n">
         <v>15</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45166</v>
+        <v>44991</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K24" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M24" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1467</v>
+        <v>722</v>
       </c>
       <c r="Q24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45166</v>
+        <v>44991</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K25" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L25" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1067</v>
+        <v>500</v>
       </c>
       <c r="Q25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44424</v>
+        <v>45161</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K26" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M26" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1200</v>
+        <v>1533</v>
       </c>
       <c r="Q26" t="n">
         <v>15</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44424</v>
+        <v>45161</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K27" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M27" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q27" t="n">
         <v>15</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45161</v>
+        <v>44756</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K28" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M28" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1533</v>
+        <v>933</v>
       </c>
       <c r="Q28" t="n">
         <v>15</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45161</v>
+        <v>44756</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L29" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1133</v>
+        <v>800</v>
       </c>
       <c r="Q29" t="n">
         <v>15</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45133</v>
+        <v>45155</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K30" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L30" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M30" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="Q30" t="n">
         <v>15</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45133</v>
+        <v>45155</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
         <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L31" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M31" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>867</v>
+        <v>1533</v>
       </c>
       <c r="Q31" t="n">
         <v>15</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44235</v>
+        <v>45155</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L32" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M32" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>778</v>
+        <v>1133</v>
       </c>
       <c r="Q32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K33" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M33" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K34" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L34" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M34" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45145</v>
+        <v>44235</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2873,24 +2873,24 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L35" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1467</v>
+        <v>556</v>
       </c>
       <c r="Q35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45145</v>
+        <v>44992</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2945,24 +2945,24 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K36" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L36" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M36" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1133</v>
+        <v>722</v>
       </c>
       <c r="Q36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K37" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L37" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M37" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44242</v>
+        <v>44424</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3096,17 +3096,17 @@
         <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L38" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M38" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q38" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45140</v>
+        <v>45142</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3168,17 +3168,17 @@
         <v>56</v>
       </c>
       <c r="K39" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L39" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M39" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1111</v>
+        <v>1533</v>
       </c>
       <c r="Q39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44756</v>
+        <v>45142</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K40" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L40" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M40" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>933</v>
+        <v>1400</v>
       </c>
       <c r="Q40" t="n">
         <v>15</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44756</v>
+        <v>45142</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K41" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L41" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M41" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q41" t="n">
         <v>15</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45149</v>
+        <v>44238</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="K42" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L42" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M42" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1600</v>
+        <v>722</v>
       </c>
       <c r="Q42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45149</v>
+        <v>44238</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K43" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L43" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M43" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1200</v>
+        <v>611</v>
       </c>
       <c r="Q43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45175</v>
+        <v>44242</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L44" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M44" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1600</v>
+        <v>722</v>
       </c>
       <c r="Q44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45175</v>
+        <v>44242</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,20 +3597,20 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K45" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L45" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M45" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1267</v>
+        <v>556</v>
       </c>
       <c r="Q45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45173</v>
+        <v>45149</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="K46" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L46" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M46" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1667</v>
+        <v>1600</v>
       </c>
       <c r="Q46" t="n">
         <v>15</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45173</v>
+        <v>45149</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K47" t="n">
         <v>18000</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44991</v>
+        <v>44536</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K48" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L48" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M48" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>722</v>
+        <v>1222</v>
       </c>
       <c r="Q48" t="n">
         <v>18</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44991</v>
+        <v>44536</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K49" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L49" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M49" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>500</v>
+        <v>1111</v>
       </c>
       <c r="Q49" t="n">
         <v>18</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44238</v>
+        <v>45134</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="K50" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L50" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M50" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>722</v>
+        <v>1333</v>
       </c>
       <c r="Q50" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44238</v>
+        <v>45134</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4020,43 +4020,259 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>60</v>
+      </c>
+      <c r="K51" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M51" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>15</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>Cultivar IV Región</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>56</v>
+      </c>
+      <c r="K52" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M52" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>1111</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>18</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>68</v>
+      </c>
+      <c r="K53" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M53" t="n">
+        <v>24000</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>1600</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>15</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J51" t="n">
-        <v>80</v>
-      </c>
-      <c r="K51" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L51" t="n">
-        <v>11000</v>
-      </c>
-      <c r="M51" t="n">
-        <v>11000</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>611</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>18</v>
-      </c>
-      <c r="R51" t="inlineStr">
+      <c r="J54" t="n">
+        <v>65</v>
+      </c>
+      <c r="K54" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M54" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>1267</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>15</v>
+      </c>
+      <c r="R54" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45133</v>
+        <v>45145</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>1467</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45133</v>
+        <v>45145</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>867</v>
+        <v>1133</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45131</v>
+        <v>44991</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -636,29 +636,29 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K4" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1333</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45131</v>
+        <v>44991</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -708,29 +708,29 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45131</v>
+        <v>45175</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M6" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1133</v>
+        <v>1600</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45131</v>
+        <v>45175</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>867</v>
+        <v>1267</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>800</v>
+        <v>1333</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45166</v>
+        <v>45131</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K9" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1467</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45166</v>
+        <v>45131</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1067</v>
+        <v>1133</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45132</v>
+        <v>45131</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="Q11" t="n">
         <v>15</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45132</v>
+        <v>45131</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45138</v>
+        <v>45160</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="K13" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L13" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M13" t="n">
-        <v>20408</v>
+        <v>23000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1361</v>
+        <v>1533</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45138</v>
+        <v>45160</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>1133</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="K15" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L15" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="M15" t="n">
-        <v>23000</v>
+        <v>20408</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1533</v>
+        <v>1361</v>
       </c>
       <c r="Q15" t="n">
         <v>15</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45160</v>
+        <v>45138</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1133</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
         <v>15</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45145</v>
+        <v>44235</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K17" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M17" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1467</v>
+        <v>778</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45145</v>
+        <v>44235</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1133</v>
+        <v>667</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45196</v>
+        <v>44235</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1716,29 +1716,29 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K19" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L19" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1600</v>
+        <v>556</v>
       </c>
       <c r="Q19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45196</v>
+        <v>45155</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K20" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M20" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45196</v>
+        <v>45155</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L21" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M21" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>867</v>
+        <v>1533</v>
       </c>
       <c r="Q21" t="n">
         <v>15</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45173</v>
+        <v>45155</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="K22" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M22" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1667</v>
+        <v>1133</v>
       </c>
       <c r="Q22" t="n">
         <v>15</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45173</v>
+        <v>44756</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K23" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M23" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1200</v>
+        <v>933</v>
       </c>
       <c r="Q23" t="n">
         <v>15</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44991</v>
+        <v>44756</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2081,24 +2081,24 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K24" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L24" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M24" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44991</v>
+        <v>45132</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2148,29 +2148,29 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="Q25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45161</v>
+        <v>45132</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
         <v>45</v>
       </c>
       <c r="K26" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L26" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M26" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1533</v>
+        <v>867</v>
       </c>
       <c r="Q26" t="n">
         <v>15</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45161</v>
+        <v>45133</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L27" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q27" t="n">
         <v>15</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44756</v>
+        <v>45133</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2364,25 +2364,25 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="Q28" t="n">
         <v>15</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44756</v>
+        <v>44424</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K29" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L29" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q29" t="n">
         <v>15</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45155</v>
+        <v>44424</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2508,25 +2508,25 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K30" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L30" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="Q30" t="n">
         <v>15</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45155</v>
+        <v>44992</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,32 +2589,32 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K31" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L31" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M31" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1533</v>
+        <v>722</v>
       </c>
       <c r="Q31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45155</v>
+        <v>45196</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K32" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L32" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M32" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1133</v>
+        <v>1600</v>
       </c>
       <c r="Q32" t="n">
         <v>15</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44235</v>
+        <v>45196</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2724,29 +2724,29 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L33" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="Q33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44235</v>
+        <v>45196</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2796,29 +2796,29 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K34" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L34" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M34" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="Q34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44235</v>
+        <v>44536</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K35" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M35" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>556</v>
+        <v>1222</v>
       </c>
       <c r="Q35" t="n">
         <v>18</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44992</v>
+        <v>44536</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K36" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L36" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M36" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>722</v>
+        <v>1111</v>
       </c>
       <c r="Q36" t="n">
         <v>18</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44424</v>
+        <v>45166</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K37" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L37" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M37" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1200</v>
+        <v>1467</v>
       </c>
       <c r="Q37" t="n">
         <v>15</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44424</v>
+        <v>45166</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3096,13 +3096,13 @@
         <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L38" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M38" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>800</v>
+        <v>1067</v>
       </c>
       <c r="Q38" t="n">
         <v>15</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45142</v>
+        <v>45161</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K39" t="n">
         <v>23000</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45142</v>
+        <v>45161</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>40</v>
       </c>
       <c r="K40" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L40" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="M40" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1400</v>
+        <v>1133</v>
       </c>
       <c r="Q40" t="n">
         <v>15</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K41" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L41" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M41" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="Q41" t="n">
         <v>15</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44238</v>
+        <v>45149</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3372,29 +3372,29 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="K42" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L42" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M42" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44238</v>
+        <v>45134</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3444,29 +3444,29 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K43" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L43" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M43" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>611</v>
+        <v>1333</v>
       </c>
       <c r="Q43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44242</v>
+        <v>45134</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J44" t="n">
         <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L44" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M44" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="Q44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44242</v>
+        <v>45142</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3588,29 +3588,29 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K45" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="L45" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="M45" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>556</v>
+        <v>1533</v>
       </c>
       <c r="Q45" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45149</v>
+        <v>45142</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K46" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L46" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="M46" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="Q46" t="n">
         <v>15</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45149</v>
+        <v>45142</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K47" t="n">
         <v>18000</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44536</v>
+        <v>44242</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="K48" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L48" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M48" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="Q48" t="n">
         <v>18</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44536</v>
+        <v>44242</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K49" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L49" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M49" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="Q49" t="n">
         <v>18</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45134</v>
+        <v>44238</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="K50" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L50" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M50" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1333</v>
+        <v>722</v>
       </c>
       <c r="Q50" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45134</v>
+        <v>44238</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K51" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L51" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M51" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="Q51" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45140</v>
+        <v>45173</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="K52" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L52" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M52" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1111</v>
+        <v>1667</v>
       </c>
       <c r="Q52" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45175</v>
+        <v>45173</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K53" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L53" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M53" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="Q53" t="n">
         <v>15</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45175</v>
+        <v>45140</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4236,29 +4236,29 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K54" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L54" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M54" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1267</v>
+        <v>1111</v>
       </c>
       <c r="Q54" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45145</v>
+        <v>44238</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1467</v>
+        <v>722</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45145</v>
+        <v>44238</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1133</v>
+        <v>611</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44991</v>
+        <v>45196</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>1600</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44991</v>
+        <v>45196</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,17 +720,17 @@
         <v>56</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45175</v>
+        <v>45196</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="K6" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1600</v>
+        <v>867</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45175</v>
+        <v>45131</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1267</v>
+        <v>1333</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1333</v>
+        <v>1200</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1133</v>
+        <v>867</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="Q11" t="n">
         <v>15</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45131</v>
+        <v>44992</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45160</v>
+        <v>44424</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="K13" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1533</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45160</v>
+        <v>44424</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1368,13 +1368,13 @@
         <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1133</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45138</v>
+        <v>44536</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L15" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M15" t="n">
-        <v>20408</v>
+        <v>22000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1361</v>
+        <v>1222</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45138</v>
+        <v>44536</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="K16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44235</v>
+        <v>45175</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L17" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M17" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>778</v>
+        <v>1600</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44235</v>
+        <v>45175</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M18" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>667</v>
+        <v>1267</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44235</v>
+        <v>45142</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1716,29 +1716,29 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K19" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="M19" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>556</v>
+        <v>1533</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45155</v>
+        <v>45142</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="K20" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L20" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="M20" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45155</v>
+        <v>45142</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K21" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L21" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1533</v>
+        <v>1200</v>
       </c>
       <c r="Q21" t="n">
         <v>15</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45155</v>
+        <v>45134</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L22" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M22" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1133</v>
+        <v>1333</v>
       </c>
       <c r="Q22" t="n">
         <v>15</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44756</v>
+        <v>45134</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="Q23" t="n">
         <v>15</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44756</v>
+        <v>45138</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2076,25 +2076,25 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="K24" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L24" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M24" t="n">
-        <v>12000</v>
+        <v>20408</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>800</v>
+        <v>1361</v>
       </c>
       <c r="Q24" t="n">
         <v>15</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45132</v>
+        <v>45138</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q25" t="n">
         <v>15</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45132</v>
+        <v>44991</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2220,16 +2220,16 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K26" t="n">
         <v>13000</v>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>867</v>
+        <v>722</v>
       </c>
       <c r="Q26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45133</v>
+        <v>44991</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,29 +2292,29 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K27" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45133</v>
+        <v>44235</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2364,29 +2364,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="Q28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2441,24 +2441,24 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K29" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44424</v>
+        <v>44235</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2513,24 +2513,24 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L30" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44992</v>
+        <v>45145</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K31" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L31" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M31" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>722</v>
+        <v>1467</v>
       </c>
       <c r="Q31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45196</v>
+        <v>45145</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2652,25 +2652,25 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K32" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L32" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M32" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1600</v>
+        <v>1133</v>
       </c>
       <c r="Q32" t="n">
         <v>15</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45196</v>
+        <v>45155</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K33" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M33" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="Q33" t="n">
         <v>15</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45196</v>
+        <v>45155</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L34" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M34" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>867</v>
+        <v>1533</v>
       </c>
       <c r="Q34" t="n">
         <v>15</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44536</v>
+        <v>45155</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="K35" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L35" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M35" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1222</v>
+        <v>1133</v>
       </c>
       <c r="Q35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44536</v>
+        <v>45161</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2940,29 +2940,29 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K36" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L36" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M36" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1111</v>
+        <v>1533</v>
       </c>
       <c r="Q36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45166</v>
+        <v>45161</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="K37" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L37" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M37" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1467</v>
+        <v>1133</v>
       </c>
       <c r="Q37" t="n">
         <v>15</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45166</v>
+        <v>45160</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K38" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L38" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M38" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1067</v>
+        <v>1533</v>
       </c>
       <c r="Q38" t="n">
         <v>15</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45161</v>
+        <v>45160</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L39" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="M39" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1533</v>
+        <v>1133</v>
       </c>
       <c r="Q39" t="n">
         <v>15</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45161</v>
+        <v>45132</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K40" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L40" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M40" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q40" t="n">
         <v>15</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45149</v>
+        <v>45132</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
         <v>45</v>
       </c>
       <c r="K41" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L41" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M41" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1600</v>
+        <v>867</v>
       </c>
       <c r="Q41" t="n">
         <v>15</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45149</v>
+        <v>45173</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="K42" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L42" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M42" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1200</v>
+        <v>1667</v>
       </c>
       <c r="Q42" t="n">
         <v>15</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45134</v>
+        <v>45173</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K43" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L43" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M43" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1333</v>
+        <v>1200</v>
       </c>
       <c r="Q43" t="n">
         <v>15</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45134</v>
+        <v>45140</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K44" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L44" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M44" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="Q44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45142</v>
+        <v>44756</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K45" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L45" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M45" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1533</v>
+        <v>933</v>
       </c>
       <c r="Q45" t="n">
         <v>15</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45142</v>
+        <v>44756</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3660,25 +3660,25 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K46" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L46" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M46" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="Q46" t="n">
         <v>15</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45142</v>
+        <v>45166</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K47" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L47" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M47" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1200</v>
+        <v>1467</v>
       </c>
       <c r="Q47" t="n">
         <v>15</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44242</v>
+        <v>45166</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3804,29 +3804,29 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K48" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L48" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M48" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>722</v>
+        <v>1067</v>
       </c>
       <c r="Q48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K49" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L49" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M49" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q49" t="n">
         <v>18</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K50" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L50" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M50" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q50" t="n">
         <v>18</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44238</v>
+        <v>45133</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4020,29 +4020,29 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K51" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L51" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M51" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>611</v>
+        <v>1200</v>
       </c>
       <c r="Q51" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45173</v>
+        <v>45133</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="K52" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L52" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M52" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1667</v>
+        <v>867</v>
       </c>
       <c r="Q52" t="n">
         <v>15</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45173</v>
+        <v>45149</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K53" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L53" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M53" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="Q53" t="n">
         <v>15</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45140</v>
+        <v>45149</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4236,29 +4236,29 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J54" t="n">
         <v>56</v>
       </c>
       <c r="K54" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L54" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M54" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1111</v>
+        <v>1200</v>
       </c>
       <c r="Q54" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44238</v>
+        <v>45160</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>722</v>
+        <v>1533</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44238</v>
+        <v>45160</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>611</v>
+        <v>1133</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45196</v>
+        <v>44242</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1600</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45196</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45196</v>
+        <v>45155</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M6" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>867</v>
+        <v>1600</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45131</v>
+        <v>45155</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M7" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1333</v>
+        <v>1533</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45131</v>
+        <v>45155</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K8" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1133</v>
+        <v>1467</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>867</v>
+        <v>1133</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45131</v>
+        <v>44424</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
         <v>15</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44992</v>
+        <v>44424</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,24 +1217,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44424</v>
+        <v>45161</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K13" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M13" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>1533</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44424</v>
+        <v>45161</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44536</v>
+        <v>45175</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K15" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L15" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M15" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1222</v>
+        <v>1600</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44536</v>
+        <v>45175</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K16" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="L16" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M16" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1111</v>
+        <v>1267</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45175</v>
+        <v>45134</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1584,13 +1584,13 @@
         <v>68</v>
       </c>
       <c r="K17" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L17" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1600</v>
+        <v>1333</v>
       </c>
       <c r="Q17" t="n">
         <v>15</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45175</v>
+        <v>45134</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1267</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
         <v>15</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45142</v>
+        <v>45133</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K19" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1533</v>
+        <v>1200</v>
       </c>
       <c r="Q19" t="n">
         <v>15</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45142</v>
+        <v>45133</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1400</v>
+        <v>867</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45142</v>
+        <v>44536</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1860,29 +1860,29 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="K21" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M21" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1200</v>
+        <v>1222</v>
       </c>
       <c r="Q21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45134</v>
+        <v>44536</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1932,16 +1932,16 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
         <v>20000</v>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1333</v>
+        <v>1111</v>
       </c>
       <c r="Q22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45134</v>
+        <v>44756</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K23" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M23" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="Q23" t="n">
         <v>15</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45138</v>
+        <v>44756</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2076,25 +2076,25 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="K24" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L24" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M24" t="n">
-        <v>20408</v>
+        <v>12000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1361</v>
+        <v>800</v>
       </c>
       <c r="Q24" t="n">
         <v>15</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45138</v>
+        <v>45149</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K25" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M25" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="Q25" t="n">
         <v>15</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44991</v>
+        <v>45149</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L26" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
         <v>56</v>
       </c>
       <c r="K27" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L27" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45145</v>
+        <v>45132</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L31" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1467</v>
+        <v>1200</v>
       </c>
       <c r="Q31" t="n">
         <v>15</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45145</v>
+        <v>45132</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K32" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L32" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M32" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1133</v>
+        <v>867</v>
       </c>
       <c r="Q32" t="n">
         <v>15</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45155</v>
+        <v>45196</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K33" t="n">
         <v>24000</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45155</v>
+        <v>45196</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K34" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L34" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1533</v>
+        <v>1200</v>
       </c>
       <c r="Q34" t="n">
         <v>15</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45155</v>
+        <v>45196</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K35" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M35" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1133</v>
+        <v>867</v>
       </c>
       <c r="Q35" t="n">
         <v>15</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45161</v>
+        <v>44991</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K36" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L36" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M36" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1533</v>
+        <v>722</v>
       </c>
       <c r="Q36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45161</v>
+        <v>44991</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="K37" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L37" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M37" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1133</v>
+        <v>500</v>
       </c>
       <c r="Q37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45160</v>
+        <v>45140</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K38" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L38" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M38" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1533</v>
+        <v>1111</v>
       </c>
       <c r="Q38" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45160</v>
+        <v>45142</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K39" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L39" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M39" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1133</v>
+        <v>1533</v>
       </c>
       <c r="Q39" t="n">
         <v>15</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45132</v>
+        <v>45142</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K40" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L40" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M40" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q40" t="n">
         <v>15</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45132</v>
+        <v>45142</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L41" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M41" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q41" t="n">
         <v>15</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45173</v>
+        <v>45138</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="K42" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L42" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M42" t="n">
-        <v>25000</v>
+        <v>20408</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1667</v>
+        <v>1361</v>
       </c>
       <c r="Q42" t="n">
         <v>15</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45173</v>
+        <v>45138</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K43" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L43" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M43" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q43" t="n">
         <v>15</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45140</v>
+        <v>45131</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3516,12 +3516,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1111</v>
+        <v>1333</v>
       </c>
       <c r="Q44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44756</v>
+        <v>45131</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K45" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L45" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M45" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>933</v>
+        <v>1200</v>
       </c>
       <c r="Q45" t="n">
         <v>15</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44756</v>
+        <v>45131</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3660,25 +3660,25 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K46" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L46" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M46" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q46" t="n">
         <v>15</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45166</v>
+        <v>45131</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K47" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M47" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1467</v>
+        <v>867</v>
       </c>
       <c r="Q47" t="n">
         <v>15</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45166</v>
+        <v>45131</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3816,13 +3816,13 @@
         <v>50</v>
       </c>
       <c r="K48" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L48" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M48" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1067</v>
+        <v>800</v>
       </c>
       <c r="Q48" t="n">
         <v>15</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K49" t="n">
         <v>13000</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K50" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L50" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M50" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q50" t="n">
         <v>18</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45133</v>
+        <v>45166</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4032,13 +4032,13 @@
         <v>68</v>
       </c>
       <c r="K51" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L51" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M51" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1200</v>
+        <v>1467</v>
       </c>
       <c r="Q51" t="n">
         <v>15</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45133</v>
+        <v>45166</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4104,13 +4104,13 @@
         <v>50</v>
       </c>
       <c r="K52" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L52" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M52" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="Q52" t="n">
         <v>15</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45149</v>
+        <v>45173</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="K53" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L53" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M53" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1600</v>
+        <v>1667</v>
       </c>
       <c r="Q53" t="n">
         <v>15</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45149</v>
+        <v>45173</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K54" t="n">
         <v>18000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45155</v>
+        <v>44235</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -780,29 +780,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1600</v>
+        <v>556</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45155</v>
+        <v>45161</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K7" t="n">
         <v>23000</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45155</v>
+        <v>45161</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
         <v>17000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45145</v>
+        <v>45132</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L9" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1467</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45145</v>
+        <v>45132</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1133</v>
+        <v>867</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44424</v>
+        <v>44991</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1152,17 +1152,17 @@
         <v>75</v>
       </c>
       <c r="K11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44424</v>
+        <v>44991</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45161</v>
+        <v>45173</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="K13" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L13" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M13" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1533</v>
+        <v>1667</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45161</v>
+        <v>45173</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45175</v>
+        <v>45166</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1440,13 +1440,13 @@
         <v>68</v>
       </c>
       <c r="K15" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L15" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M15" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1600</v>
+        <v>1467</v>
       </c>
       <c r="Q15" t="n">
         <v>15</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45175</v>
+        <v>45166</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L16" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M16" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1267</v>
+        <v>1067</v>
       </c>
       <c r="Q16" t="n">
         <v>15</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45134</v>
+        <v>44242</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1333</v>
+        <v>722</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45134</v>
+        <v>44242</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45133</v>
+        <v>45196</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1728,13 +1728,13 @@
         <v>68</v>
       </c>
       <c r="K19" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M19" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="Q19" t="n">
         <v>15</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45133</v>
+        <v>45196</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44536</v>
+        <v>45196</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1860,29 +1860,29 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="K21" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M21" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1222</v>
+        <v>867</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44536</v>
+        <v>45131</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1932,16 +1932,16 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K22" t="n">
         <v>20000</v>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1111</v>
+        <v>1333</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44756</v>
+        <v>45131</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L23" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>933</v>
+        <v>1200</v>
       </c>
       <c r="Q23" t="n">
         <v>15</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44756</v>
+        <v>45131</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2076,25 +2076,25 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K24" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M24" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q24" t="n">
         <v>15</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45149</v>
+        <v>45131</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K25" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L25" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1600</v>
+        <v>867</v>
       </c>
       <c r="Q25" t="n">
         <v>15</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45149</v>
+        <v>45131</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K26" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M26" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q26" t="n">
         <v>15</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44992</v>
+        <v>45133</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K27" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44235</v>
+        <v>45133</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2364,29 +2364,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K29" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L29" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M29" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q29" t="n">
         <v>18</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L30" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M30" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45132</v>
+        <v>45175</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K31" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M31" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="Q31" t="n">
         <v>15</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45132</v>
+        <v>45175</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K32" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L32" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M32" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>867</v>
+        <v>1267</v>
       </c>
       <c r="Q32" t="n">
         <v>15</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45196</v>
+        <v>44536</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="K33" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L33" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M33" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1600</v>
+        <v>1222</v>
       </c>
       <c r="Q33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45196</v>
+        <v>44536</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K34" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M34" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="Q34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45196</v>
+        <v>45138</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L35" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M35" t="n">
-        <v>13000</v>
+        <v>20408</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>867</v>
+        <v>1361</v>
       </c>
       <c r="Q35" t="n">
         <v>15</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44991</v>
+        <v>45138</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2940,29 +2940,29 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K36" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L36" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="Q36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44991</v>
+        <v>45134</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3012,29 +3012,29 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K37" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L37" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M37" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>500</v>
+        <v>1333</v>
       </c>
       <c r="Q37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45140</v>
+        <v>45134</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L38" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="Q38" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45142</v>
+        <v>44756</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K39" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M39" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1533</v>
+        <v>933</v>
       </c>
       <c r="Q39" t="n">
         <v>15</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45142</v>
+        <v>44756</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3228,25 +3228,25 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K40" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L40" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M40" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="Q40" t="n">
         <v>15</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K41" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L41" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M41" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="Q41" t="n">
         <v>15</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45138</v>
+        <v>45149</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="K42" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L42" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M42" t="n">
-        <v>20408</v>
+        <v>18000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1361</v>
+        <v>1200</v>
       </c>
       <c r="Q42" t="n">
         <v>15</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45138</v>
+        <v>45142</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K43" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="M43" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1000</v>
+        <v>1533</v>
       </c>
       <c r="Q43" t="n">
         <v>15</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45131</v>
+        <v>45142</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K44" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L44" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M44" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1333</v>
+        <v>1400</v>
       </c>
       <c r="Q44" t="n">
         <v>15</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45131</v>
+        <v>45142</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3593,11 +3593,11 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K45" t="n">
         <v>18000</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45131</v>
+        <v>45155</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K46" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L46" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M46" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1133</v>
+        <v>1600</v>
       </c>
       <c r="Q46" t="n">
         <v>15</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45131</v>
+        <v>45155</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K47" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L47" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M47" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>867</v>
+        <v>1533</v>
       </c>
       <c r="Q47" t="n">
         <v>15</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45131</v>
+        <v>45155</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K48" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L48" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M48" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q48" t="n">
         <v>15</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44238</v>
+        <v>44992</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="K49" t="n">
         <v>13000</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44238</v>
+        <v>45140</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K50" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L50" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M50" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>611</v>
+        <v>1111</v>
       </c>
       <c r="Q50" t="n">
         <v>18</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45166</v>
+        <v>44424</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K51" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L51" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M51" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1467</v>
+        <v>1200</v>
       </c>
       <c r="Q51" t="n">
         <v>15</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45166</v>
+        <v>44424</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4104,13 +4104,13 @@
         <v>50</v>
       </c>
       <c r="K52" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L52" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M52" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1067</v>
+        <v>800</v>
       </c>
       <c r="Q52" t="n">
         <v>15</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45173</v>
+        <v>45145</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K53" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L53" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M53" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1667</v>
+        <v>1467</v>
       </c>
       <c r="Q53" t="n">
         <v>15</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45173</v>
+        <v>45145</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K54" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L54" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M54" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q54" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44235</v>
+        <v>45155</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -780,29 +780,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>556</v>
+        <v>1600</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45161</v>
+        <v>45155</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
         <v>23000</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45161</v>
+        <v>45155</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="K8" t="n">
         <v>17000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45132</v>
+        <v>45145</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>1467</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45132</v>
+        <v>45145</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>867</v>
+        <v>1133</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44991</v>
+        <v>44424</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1152,17 +1152,17 @@
         <v>75</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44991</v>
+        <v>44424</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45173</v>
+        <v>45161</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="K13" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L13" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M13" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1667</v>
+        <v>1533</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45173</v>
+        <v>45161</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45166</v>
+        <v>45175</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1440,13 +1440,13 @@
         <v>68</v>
       </c>
       <c r="K15" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L15" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M15" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1467</v>
+        <v>1600</v>
       </c>
       <c r="Q15" t="n">
         <v>15</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45166</v>
+        <v>45175</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K16" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L16" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M16" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1067</v>
+        <v>1267</v>
       </c>
       <c r="Q16" t="n">
         <v>15</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44242</v>
+        <v>45134</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>722</v>
+        <v>1333</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44242</v>
+        <v>45134</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45196</v>
+        <v>45133</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1728,13 +1728,13 @@
         <v>68</v>
       </c>
       <c r="K19" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="Q19" t="n">
         <v>15</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45196</v>
+        <v>45133</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45196</v>
+        <v>44536</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1860,29 +1860,29 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L21" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M21" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>867</v>
+        <v>1222</v>
       </c>
       <c r="Q21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45131</v>
+        <v>44536</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1932,16 +1932,16 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
         <v>20000</v>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1333</v>
+        <v>1111</v>
       </c>
       <c r="Q22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45131</v>
+        <v>44756</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K23" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M23" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1200</v>
+        <v>933</v>
       </c>
       <c r="Q23" t="n">
         <v>15</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45131</v>
+        <v>44756</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2076,25 +2076,25 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L24" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M24" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1133</v>
+        <v>800</v>
       </c>
       <c r="Q24" t="n">
         <v>15</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45131</v>
+        <v>45149</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M25" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>867</v>
+        <v>1600</v>
       </c>
       <c r="Q25" t="n">
         <v>15</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45131</v>
+        <v>45149</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K26" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L26" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q26" t="n">
         <v>15</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45133</v>
+        <v>44992</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K27" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45133</v>
+        <v>44235</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2364,29 +2364,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="Q28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K29" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L29" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q29" t="n">
         <v>18</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L30" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45175</v>
+        <v>45132</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L31" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="Q31" t="n">
         <v>15</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45175</v>
+        <v>45132</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="K32" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L32" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M32" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1267</v>
+        <v>867</v>
       </c>
       <c r="Q32" t="n">
         <v>15</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44536</v>
+        <v>45196</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K33" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L33" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M33" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1222</v>
+        <v>1600</v>
       </c>
       <c r="Q33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44536</v>
+        <v>45196</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K34" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1111</v>
+        <v>1200</v>
       </c>
       <c r="Q34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45138</v>
+        <v>45196</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="K35" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="M35" t="n">
-        <v>20408</v>
+        <v>13000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1361</v>
+        <v>867</v>
       </c>
       <c r="Q35" t="n">
         <v>15</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45138</v>
+        <v>44991</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2940,29 +2940,29 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="Q36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45134</v>
+        <v>44991</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3012,29 +3012,29 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K37" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L37" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M37" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1333</v>
+        <v>500</v>
       </c>
       <c r="Q37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45134</v>
+        <v>45140</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K38" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M38" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="Q38" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44756</v>
+        <v>45142</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L39" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M39" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>933</v>
+        <v>1533</v>
       </c>
       <c r="Q39" t="n">
         <v>15</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44756</v>
+        <v>45142</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3228,25 +3228,25 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="K40" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="L40" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M40" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="Q40" t="n">
         <v>15</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45149</v>
+        <v>45142</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K41" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L41" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M41" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="Q41" t="n">
         <v>15</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45149</v>
+        <v>45138</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="K42" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L42" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M42" t="n">
-        <v>18000</v>
+        <v>20408</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1200</v>
+        <v>1361</v>
       </c>
       <c r="Q42" t="n">
         <v>15</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45142</v>
+        <v>45138</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K43" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L43" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M43" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1533</v>
+        <v>1000</v>
       </c>
       <c r="Q43" t="n">
         <v>15</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45142</v>
+        <v>45131</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="K44" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="L44" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="M44" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1400</v>
+        <v>1333</v>
       </c>
       <c r="Q44" t="n">
         <v>15</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45142</v>
+        <v>45131</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3593,11 +3593,11 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="K45" t="n">
         <v>18000</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45155</v>
+        <v>45131</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K46" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L46" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M46" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1600</v>
+        <v>1133</v>
       </c>
       <c r="Q46" t="n">
         <v>15</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45155</v>
+        <v>45131</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K47" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M47" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1533</v>
+        <v>867</v>
       </c>
       <c r="Q47" t="n">
         <v>15</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45155</v>
+        <v>45131</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K48" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L48" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M48" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1133</v>
+        <v>800</v>
       </c>
       <c r="Q48" t="n">
         <v>15</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44992</v>
+        <v>44238</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K49" t="n">
         <v>13000</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45140</v>
+        <v>44238</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K50" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L50" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M50" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1111</v>
+        <v>611</v>
       </c>
       <c r="Q50" t="n">
         <v>18</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44424</v>
+        <v>45166</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K51" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L51" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M51" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1200</v>
+        <v>1467</v>
       </c>
       <c r="Q51" t="n">
         <v>15</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44424</v>
+        <v>45166</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4104,13 +4104,13 @@
         <v>50</v>
       </c>
       <c r="K52" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L52" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M52" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>800</v>
+        <v>1067</v>
       </c>
       <c r="Q52" t="n">
         <v>15</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45145</v>
+        <v>45173</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K53" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L53" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M53" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1467</v>
+        <v>1667</v>
       </c>
       <c r="Q53" t="n">
         <v>15</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45145</v>
+        <v>45173</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K54" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L54" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M54" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q54" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45160</v>
+        <v>45173</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="K2" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L2" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M2" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1533</v>
+        <v>1667</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45160</v>
+        <v>45173</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44235</v>
+        <v>45161</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -780,29 +780,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>556</v>
+        <v>1533</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1533</v>
+        <v>1133</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45161</v>
+        <v>45140</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -924,29 +924,29 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1133</v>
+        <v>1111</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45132</v>
+        <v>44991</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45132</v>
+        <v>44991</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>867</v>
+        <v>500</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44991</v>
+        <v>45160</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>722</v>
+        <v>1533</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44991</v>
+        <v>45160</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>500</v>
+        <v>1133</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45173</v>
+        <v>45155</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K13" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L13" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M13" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1667</v>
+        <v>1600</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45173</v>
+        <v>45155</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M14" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1200</v>
+        <v>1533</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45166</v>
+        <v>45155</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K15" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1467</v>
+        <v>1133</v>
       </c>
       <c r="Q15" t="n">
         <v>15</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45166</v>
+        <v>44536</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1500,29 +1500,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="K16" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L16" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M16" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1067</v>
+        <v>1222</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44242</v>
+        <v>44536</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>722</v>
+        <v>1111</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44242</v>
+        <v>45131</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1644,29 +1644,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K18" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>556</v>
+        <v>1333</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45196</v>
+        <v>45131</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K19" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L19" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="Q19" t="n">
         <v>15</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45196</v>
+        <v>45131</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>56</v>
       </c>
       <c r="K20" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M20" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45196</v>
+        <v>45131</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K21" t="n">
         <v>13000</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1333</v>
+        <v>800</v>
       </c>
       <c r="Q22" t="n">
         <v>15</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45131</v>
+        <v>45149</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K23" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M23" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="Q23" t="n">
         <v>15</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45131</v>
+        <v>45149</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
         <v>56</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L24" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q24" t="n">
         <v>15</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45131</v>
+        <v>44756</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2148,25 +2148,25 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M25" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="Q25" t="n">
         <v>15</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45131</v>
+        <v>44756</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K26" t="n">
         <v>12000</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45133</v>
+        <v>44424</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K27" t="n">
         <v>18000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45133</v>
+        <v>44424</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2376,13 +2376,13 @@
         <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M28" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="Q28" t="n">
         <v>15</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45175</v>
+        <v>44235</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K31" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M31" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1600</v>
+        <v>778</v>
       </c>
       <c r="Q31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45175</v>
+        <v>44235</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K32" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L32" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M32" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1267</v>
+        <v>667</v>
       </c>
       <c r="Q32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44536</v>
+        <v>44235</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="K33" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L33" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44536</v>
+        <v>45133</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2796,29 +2796,29 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K34" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1111</v>
+        <v>1200</v>
       </c>
       <c r="Q34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="K35" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="M35" t="n">
-        <v>20408</v>
+        <v>13000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1361</v>
+        <v>867</v>
       </c>
       <c r="Q35" t="n">
         <v>15</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45138</v>
+        <v>45166</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K36" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M36" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1000</v>
+        <v>1467</v>
       </c>
       <c r="Q36" t="n">
         <v>15</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45134</v>
+        <v>45166</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L37" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M37" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1333</v>
+        <v>1067</v>
       </c>
       <c r="Q37" t="n">
         <v>15</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45134</v>
+        <v>45142</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K38" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="M38" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1000</v>
+        <v>1533</v>
       </c>
       <c r="Q38" t="n">
         <v>15</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44756</v>
+        <v>45142</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L39" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M39" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>933</v>
+        <v>1400</v>
       </c>
       <c r="Q39" t="n">
         <v>15</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44756</v>
+        <v>45142</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K40" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L40" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M40" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q40" t="n">
         <v>15</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45149</v>
+        <v>45175</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="K41" t="n">
         <v>24000</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45149</v>
+        <v>45175</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K42" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L42" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M42" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1200</v>
+        <v>1267</v>
       </c>
       <c r="Q42" t="n">
         <v>15</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45142</v>
+        <v>44992</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3456,17 +3456,17 @@
         <v>56</v>
       </c>
       <c r="K43" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L43" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M43" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1533</v>
+        <v>722</v>
       </c>
       <c r="Q43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K44" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L44" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M44" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1400</v>
+        <v>1467</v>
       </c>
       <c r="Q44" t="n">
         <v>15</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K45" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L45" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M45" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q45" t="n">
         <v>15</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45155</v>
+        <v>45134</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K46" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L46" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M46" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1600</v>
+        <v>1333</v>
       </c>
       <c r="Q46" t="n">
         <v>15</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45155</v>
+        <v>45134</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K47" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L47" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M47" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1533</v>
+        <v>1000</v>
       </c>
       <c r="Q47" t="n">
         <v>15</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45155</v>
+        <v>45138</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="K48" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L48" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M48" t="n">
-        <v>17000</v>
+        <v>20408</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1133</v>
+        <v>1361</v>
       </c>
       <c r="Q48" t="n">
         <v>15</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44992</v>
+        <v>45138</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3876,29 +3876,29 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K49" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L49" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M49" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="Q49" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45140</v>
+        <v>45132</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K50" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L50" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M50" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1111</v>
+        <v>1200</v>
       </c>
       <c r="Q50" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44424</v>
+        <v>45132</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4020,25 +4020,25 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K51" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L51" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M51" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="Q51" t="n">
         <v>15</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44424</v>
+        <v>45196</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4092,25 +4092,25 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K52" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="L52" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M52" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="Q52" t="n">
         <v>15</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45145</v>
+        <v>45196</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K53" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L53" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M53" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1467</v>
+        <v>1200</v>
       </c>
       <c r="Q53" t="n">
         <v>15</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45145</v>
+        <v>45196</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4236,25 +4236,25 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K54" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L54" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M54" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1133</v>
+        <v>867</v>
       </c>
       <c r="Q54" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Pepino dulce.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44242</v>
+        <v>45145</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>722</v>
+        <v>1467</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>45145</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>556</v>
+        <v>1133</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45161</v>
+        <v>45134</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="K6" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L6" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1533</v>
+        <v>1333</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45161</v>
+        <v>45134</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1133</v>
+        <v>1000</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45140</v>
+        <v>45160</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K8" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M8" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1111</v>
+        <v>1533</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44991</v>
+        <v>45160</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -996,29 +996,29 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>722</v>
+        <v>1133</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44991</v>
+        <v>45149</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,29 +1068,29 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45160</v>
+        <v>45149</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L11" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1533</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
         <v>15</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45160</v>
+        <v>45131</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1133</v>
+        <v>1333</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45155</v>
+        <v>45131</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K13" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L13" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45155</v>
+        <v>45131</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K14" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1533</v>
+        <v>1133</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45155</v>
+        <v>45131</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1440,13 +1440,13 @@
         <v>56</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1133</v>
+        <v>867</v>
       </c>
       <c r="Q15" t="n">
         <v>15</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44536</v>
+        <v>45131</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1500,41 +1500,41 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1222</v>
+        <v>800</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44536</v>
+        <v>45138</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="K17" t="n">
         <v>20000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M17" t="n">
-        <v>20000</v>
+        <v>20408</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1111</v>
+        <v>1361</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
         <v>15</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45131</v>
+        <v>45196</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K19" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M19" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="Q19" t="n">
         <v>15</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45131</v>
+        <v>45196</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>56</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45131</v>
+        <v>45196</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K21" t="n">
         <v>13000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45131</v>
+        <v>45140</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1932,41 +1932,41 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L22" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M22" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="Q22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45149</v>
+        <v>45166</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="K23" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L23" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M23" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1600</v>
+        <v>1467</v>
       </c>
       <c r="Q23" t="n">
         <v>15</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45149</v>
+        <v>45166</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K24" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M24" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1200</v>
+        <v>1067</v>
       </c>
       <c r="Q24" t="n">
         <v>15</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44756</v>
+        <v>45132</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L25" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>933</v>
+        <v>1200</v>
       </c>
       <c r="Q25" t="n">
         <v>15</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44756</v>
+        <v>45132</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="K26" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L26" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M26" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="Q26" t="n">
         <v>15</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K27" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M27" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1200</v>
+        <v>1222</v>
       </c>
       <c r="Q27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44424</v>
+        <v>44536</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L28" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="Q28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44238</v>
+        <v>45161</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="K29" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L29" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M29" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>722</v>
+        <v>1533</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44238</v>
+        <v>45161</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K30" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L30" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M30" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>611</v>
+        <v>1133</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L31" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M31" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q31" t="n">
         <v>18</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L32" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M32" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q32" t="n">
         <v>18</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
         <v>60</v>
       </c>
       <c r="K33" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M33" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45133</v>
+        <v>44242</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2796,29 +2796,29 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K34" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M34" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45133</v>
+        <v>45175</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="L35" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M35" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>867</v>
+        <v>1600</v>
       </c>
       <c r="Q35" t="n">
         <v>15</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45166</v>
+        <v>45175</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K36" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="L36" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M36" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1467</v>
+        <v>1267</v>
       </c>
       <c r="Q36" t="n">
         <v>15</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45166</v>
+        <v>44991</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3012,29 +3012,29 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K37" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L37" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M37" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1067</v>
+        <v>722</v>
       </c>
       <c r="Q37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45142</v>
+        <v>44991</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
         <v>56</v>
       </c>
       <c r="K38" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="L38" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="M38" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1533</v>
+        <v>500</v>
       </c>
       <c r="Q38" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45142</v>
+        <v>44235</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,32 +3165,32 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K39" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M39" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1400</v>
+        <v>778</v>
       </c>
       <c r="Q39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45142</v>
+        <v>44235</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="K40" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L40" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M40" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45175</v>
+        <v>44235</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3300,29 +3300,29 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K41" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L41" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1600</v>
+        <v>556</v>
       </c>
       <c r="Q41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45175</v>
+        <v>44756</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3372,25 +3372,25 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
         <v>65</v>
       </c>
       <c r="K42" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L42" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M42" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1267</v>
+        <v>933</v>
       </c>
       <c r="Q42" t="n">
         <v>15</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44992</v>
+        <v>44756</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3449,24 +3449,24 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K43" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L43" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M43" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Q43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45145</v>
+        <v>44424</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K44" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L44" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M44" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1467</v>
+        <v>1200</v>
       </c>
       <c r="Q44" t="n">
         <v>15</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45145</v>
+        <v>44424</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K45" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L45" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M45" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1133</v>
+        <v>800</v>
       </c>
       <c r="Q45" t="n">
         <v>15</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45134</v>
+        <v>45133</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3672,13 +3672,13 @@
         <v>68</v>
       </c>
       <c r="K46" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L46" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M46" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1333</v>
+        <v>1200</v>
       </c>
       <c r="Q46" t="n">
         <v>15</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45134</v>
+        <v>45133</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K47" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M47" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="Q47" t="n">
         <v>15</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45138</v>
+        <v>45142</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="K48" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L48" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M48" t="n">
-        <v>20408</v>
+        <v>23000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1361</v>
+        <v>1533</v>
       </c>
       <c r="Q48" t="n">
         <v>15</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45138</v>
+        <v>45142</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="K49" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L49" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M49" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q49" t="n">
         <v>15</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45132</v>
+        <v>45142</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3953,11 +3953,11 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K50" t="n">
         <v>18000</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45132</v>
+        <v>45155</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K51" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="L51" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M51" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>867</v>
+        <v>1600</v>
       </c>
       <c r="Q51" t="n">
         <v>15</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45196</v>
+        <v>45155</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K52" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L52" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M52" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1600</v>
+        <v>1533</v>
       </c>
       <c r="Q52" t="n">
         <v>15</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45196</v>
+        <v>45155</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4176,13 +4176,13 @@
         <v>56</v>
       </c>
       <c r="K53" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L53" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M53" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="Q53" t="n">
         <v>15</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45196</v>
+        <v>44992</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4236,16 +4236,16 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K54" t="n">
         <v>13000</v>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>867</v>
+        <v>722</v>
       </c>
       <c r="Q54" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
